--- a/data/strategies/招商场外策略结果.xlsx
+++ b/data/strategies/招商场外策略结果.xlsx
@@ -18,20 +18,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="188">
+  <si>
+    <t>汇添富中证主要消费ETF联接</t>
+  </si>
+  <si>
+    <t>华夏战略新兴成指ETF联接A</t>
+  </si>
+  <si>
+    <t>华夏国证半导体芯片ETF联接A</t>
+  </si>
   <si>
     <t>天弘中证光伏产业A</t>
   </si>
   <si>
-    <t>华夏国证半导体芯片ETF联接A</t>
-  </si>
-  <si>
-    <t>华夏战略新兴成指ETF联接A</t>
-  </si>
-  <si>
-    <t>汇添富中证主要消费ETF联接</t>
-  </si>
-  <si>
     <t>政策红利+新消费</t>
   </si>
   <si>
@@ -62,526 +62,526 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>5.08%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>21.48%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>9.04%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>18.82%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
+    <t>13.65%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>22.46%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>17.81%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>27.47%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>23.02%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>28.11%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
+  </si>
+  <si>
+    <t>场外权重</t>
+  </si>
+  <si>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
+  </si>
+  <si>
+    <t>场外基金</t>
+  </si>
+  <si>
+    <t>场外代码</t>
+  </si>
+  <si>
+    <t>000248.OF</t>
+  </si>
+  <si>
+    <t>006909.OF</t>
+  </si>
+  <si>
+    <t>008887.OF</t>
+  </si>
+  <si>
+    <t>011102.OF</t>
+  </si>
+  <si>
+    <t>-9.18%</t>
+  </si>
+  <si>
+    <t>5.99%</t>
+  </si>
+  <si>
+    <t>19.52%</t>
+  </si>
+  <si>
+    <t>23.45%</t>
+  </si>
+  <si>
+    <t>-3.54%</t>
+  </si>
+  <si>
+    <t>16.98%</t>
+  </si>
+  <si>
+    <t>31.33%</t>
+  </si>
+  <si>
+    <t>29.49%</t>
+  </si>
+  <si>
+    <t>-8.61%</t>
+  </si>
+  <si>
+    <t>12.74%</t>
+  </si>
+  <si>
+    <t>31.01%</t>
+  </si>
+  <si>
+    <t>20.84%</t>
+  </si>
+  <si>
+    <t>18.20%</t>
+  </si>
+  <si>
+    <t>24.51%</t>
+  </si>
+  <si>
+    <t>42.92%</t>
+  </si>
+  <si>
+    <t>37.26%</t>
+  </si>
+  <si>
+    <t>20.31%</t>
+  </si>
+  <si>
+    <t>23.27%</t>
+  </si>
+  <si>
+    <t>32.52%</t>
+  </si>
+  <si>
+    <t>30.09%</t>
+  </si>
+  <si>
+    <t>28.26%</t>
+  </si>
+  <si>
+    <t>29.79%</t>
+  </si>
+  <si>
+    <t>34.08%</t>
+  </si>
+  <si>
+    <t>36.31%</t>
+  </si>
+  <si>
+    <t>股票代码</t>
+  </si>
+  <si>
+    <t>股票权重</t>
+  </si>
+  <si>
+    <t>股票名称</t>
+  </si>
+  <si>
+    <t>财报主营构成</t>
+  </si>
+  <si>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>601012.SH</t>
+  </si>
+  <si>
+    <t>000858.SZ</t>
+  </si>
+  <si>
+    <t>600519.SH</t>
+  </si>
+  <si>
+    <t>600887.SH</t>
+  </si>
+  <si>
+    <t>603501.SH</t>
+  </si>
+  <si>
+    <t>002129.SZ</t>
+  </si>
+  <si>
+    <t>300274.SZ</t>
+  </si>
+  <si>
+    <t>300782.SZ</t>
+  </si>
+  <si>
+    <t>000568.SZ</t>
+  </si>
+  <si>
+    <t>603288.SH</t>
+  </si>
+  <si>
+    <t>002714.SZ</t>
+  </si>
+  <si>
+    <t>600809.SH</t>
+  </si>
+  <si>
+    <t>600438.SH</t>
+  </si>
+  <si>
+    <t>002304.SZ</t>
+  </si>
+  <si>
+    <t>300059.SZ</t>
+  </si>
+  <si>
+    <t>600276.SH</t>
+  </si>
+  <si>
+    <t>603986.SH</t>
+  </si>
+  <si>
+    <t>002415.SZ</t>
+  </si>
+  <si>
+    <t>603259.SH</t>
+  </si>
+  <si>
+    <t>600703.SH</t>
+  </si>
+  <si>
+    <t>440.47%</t>
+  </si>
+  <si>
+    <t>335.74%</t>
+  </si>
+  <si>
+    <t>319.41%</t>
+  </si>
+  <si>
+    <t>309.21%</t>
+  </si>
+  <si>
+    <t>284.00%</t>
+  </si>
+  <si>
+    <t>277.75%</t>
+  </si>
+  <si>
+    <t>272.33%</t>
+  </si>
+  <si>
+    <t>256.68%</t>
+  </si>
+  <si>
+    <t>238.52%</t>
+  </si>
+  <si>
+    <t>224.93%</t>
+  </si>
+  <si>
+    <t>220.90%</t>
+  </si>
+  <si>
+    <t>215.56%</t>
+  </si>
+  <si>
+    <t>173.21%</t>
+  </si>
+  <si>
+    <t>172.39%</t>
+  </si>
+  <si>
+    <t>159.56%</t>
+  </si>
+  <si>
+    <t>156.75%</t>
+  </si>
+  <si>
+    <t>149.67%</t>
+  </si>
+  <si>
+    <t>132.99%</t>
+  </si>
+  <si>
+    <t>123.95%</t>
+  </si>
+  <si>
+    <t>117.59%</t>
+  </si>
+  <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
+    <t>五粮液</t>
+  </si>
+  <si>
+    <t>贵州茅台</t>
+  </si>
+  <si>
+    <t>伊利股份</t>
+  </si>
+  <si>
+    <t>韦尔股份</t>
+  </si>
+  <si>
+    <t>中环股份</t>
+  </si>
+  <si>
+    <t>阳光电源</t>
+  </si>
+  <si>
+    <t>卓胜微</t>
+  </si>
+  <si>
+    <t>泸州老窖</t>
+  </si>
+  <si>
+    <t>海天味业</t>
+  </si>
+  <si>
+    <t>牧原股份</t>
+  </si>
+  <si>
+    <t>山西汾酒</t>
+  </si>
+  <si>
+    <t>通威股份</t>
+  </si>
+  <si>
+    <t>洋河股份</t>
+  </si>
+  <si>
+    <t>东方财富</t>
+  </si>
+  <si>
+    <t>恒瑞医药</t>
+  </si>
+  <si>
+    <t>兆易创新</t>
+  </si>
+  <si>
+    <t>海康威视</t>
+  </si>
+  <si>
+    <t>药明康德</t>
+  </si>
+  <si>
+    <t>三安光电</t>
+  </si>
+  <si>
+    <t>太阳能组件</t>
+  </si>
+  <si>
+    <t>酒类</t>
+  </si>
+  <si>
+    <t>茅台酒</t>
+  </si>
+  <si>
+    <t>液体乳</t>
+  </si>
+  <si>
+    <t>CMOS图像传感器产品</t>
+  </si>
+  <si>
+    <t>新能源材料</t>
+  </si>
+  <si>
+    <t>电站系统集成(不含自制产品)</t>
+  </si>
+  <si>
+    <t>射频开关</t>
+  </si>
+  <si>
+    <t>中高档酒类</t>
+  </si>
+  <si>
+    <t>酱油</t>
+  </si>
+  <si>
+    <t>生猪</t>
+  </si>
+  <si>
+    <t>白酒</t>
+  </si>
+  <si>
+    <t>配合饲料</t>
+  </si>
+  <si>
+    <t>证券经纪业务</t>
+  </si>
+  <si>
+    <t>抗肿瘤</t>
+  </si>
+  <si>
+    <t>存储芯片销售</t>
+  </si>
+  <si>
+    <t>前端音视频产品</t>
+  </si>
+  <si>
+    <t>中国区实验室服务</t>
+  </si>
+  <si>
+    <t>化合物半导体产品</t>
+  </si>
+  <si>
+    <t>41.29%</t>
+  </si>
+  <si>
+    <t>-4.64%</t>
+  </si>
+  <si>
+    <t>2.40%</t>
+  </si>
+  <si>
+    <t>-19.50%</t>
+  </si>
+  <si>
+    <t>50.37%</t>
+  </si>
+  <si>
+    <t>65.91%</t>
+  </si>
+  <si>
+    <t>74.57%</t>
+  </si>
+  <si>
+    <t>49.93%</t>
+  </si>
+  <si>
+    <t>-0.49%</t>
+  </si>
+  <si>
+    <t>-23.57%</t>
+  </si>
+  <si>
+    <t>7.27%</t>
+  </si>
+  <si>
+    <t>19.71%</t>
+  </si>
+  <si>
+    <t>8.06%</t>
+  </si>
+  <si>
+    <t>-15.98%</t>
+  </si>
+  <si>
+    <t>37.06%</t>
+  </si>
+  <si>
+    <t>-32.63%</t>
+  </si>
+  <si>
+    <t>38.13%</t>
+  </si>
+  <si>
+    <t>35.01%</t>
+  </si>
+  <si>
+    <t>47.28%</t>
+  </si>
+  <si>
+    <t>24.28%</t>
+  </si>
+  <si>
+    <t>一级标签</t>
+  </si>
+  <si>
+    <t>标签占比</t>
+  </si>
+  <si>
+    <t>食品饮料</t>
+  </si>
+  <si>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t>半导体芯片</t>
+  </si>
+  <si>
+    <t>医药生物</t>
+  </si>
+  <si>
+    <t>饲料养殖</t>
+  </si>
+  <si>
+    <t>证券</t>
+  </si>
+  <si>
+    <t>电子</t>
+  </si>
+  <si>
+    <t>光学光电子</t>
+  </si>
+  <si>
+    <t>18.16%</t>
   </si>
   <si>
     <t>11.64%</t>
   </si>
   <si>
-    <t>19.99%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>27.16%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
-  </si>
-  <si>
-    <t>场外权重</t>
-  </si>
-  <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
-  </si>
-  <si>
-    <t>场外基金</t>
-  </si>
-  <si>
-    <t>场外代码</t>
-  </si>
-  <si>
-    <t>011102.OF</t>
-  </si>
-  <si>
-    <t>008887.OF</t>
-  </si>
-  <si>
-    <t>006909.OF</t>
-  </si>
-  <si>
-    <t>000248.OF</t>
-  </si>
-  <si>
-    <t>15.83%</t>
-  </si>
-  <si>
-    <t>16.66%</t>
-  </si>
-  <si>
-    <t>4.87%</t>
-  </si>
-  <si>
-    <t>-5.98%</t>
-  </si>
-  <si>
-    <t>29.61%</t>
-  </si>
-  <si>
-    <t>36.63%</t>
-  </si>
-  <si>
-    <t>24.90%</t>
-  </si>
-  <si>
-    <t>6.46%</t>
-  </si>
-  <si>
-    <t>13.84%</t>
-  </si>
-  <si>
-    <t>21.95%</t>
-  </si>
-  <si>
-    <t>11.77%</t>
-  </si>
-  <si>
-    <t>-2.83%</t>
-  </si>
-  <si>
-    <t>34.71%</t>
-  </si>
-  <si>
-    <t>36.29%</t>
-  </si>
-  <si>
-    <t>20.86%</t>
-  </si>
-  <si>
-    <t>16.54%</t>
-  </si>
-  <si>
-    <t>28.49%</t>
-  </si>
-  <si>
-    <t>30.64%</t>
-  </si>
-  <si>
-    <t>23.07%</t>
-  </si>
-  <si>
-    <t>20.58%</t>
-  </si>
-  <si>
-    <t>36.05%</t>
-  </si>
-  <si>
-    <t>33.26%</t>
-  </si>
-  <si>
-    <t>30.06%</t>
-  </si>
-  <si>
-    <t>28.64%</t>
-  </si>
-  <si>
-    <t>股票代码</t>
-  </si>
-  <si>
-    <t>股票权重</t>
-  </si>
-  <si>
-    <t>股票名称</t>
-  </si>
-  <si>
-    <t>财报主营构成</t>
-  </si>
-  <si>
-    <t>区间涨跌幅</t>
-  </si>
-  <si>
-    <t>600519.SH</t>
-  </si>
-  <si>
-    <t>000858.SZ</t>
-  </si>
-  <si>
-    <t>601012.SH</t>
-  </si>
-  <si>
-    <t>603501.SH</t>
-  </si>
-  <si>
-    <t>600887.SH</t>
-  </si>
-  <si>
-    <t>300274.SZ</t>
-  </si>
-  <si>
-    <t>000568.SZ</t>
-  </si>
-  <si>
-    <t>603288.SH</t>
-  </si>
-  <si>
-    <t>002129.SZ</t>
-  </si>
-  <si>
-    <t>002714.SZ</t>
-  </si>
-  <si>
-    <t>600809.SH</t>
-  </si>
-  <si>
-    <t>600438.SH</t>
-  </si>
-  <si>
-    <t>300782.SZ</t>
-  </si>
-  <si>
-    <t>600276.SH</t>
-  </si>
-  <si>
-    <t>002304.SZ</t>
-  </si>
-  <si>
-    <t>300059.SZ</t>
-  </si>
-  <si>
-    <t>603986.SH</t>
-  </si>
-  <si>
-    <t>002415.SZ</t>
-  </si>
-  <si>
-    <t>600703.SH</t>
-  </si>
-  <si>
-    <t>300450.SZ</t>
-  </si>
-  <si>
-    <t>3.63%</t>
-  </si>
-  <si>
-    <t>3.46%</t>
-  </si>
-  <si>
-    <t>3.43%</t>
-  </si>
-  <si>
-    <t>2.99%</t>
-  </si>
-  <si>
-    <t>2.56%</t>
-  </si>
-  <si>
-    <t>2.51%</t>
-  </si>
-  <si>
-    <t>2.16%</t>
-  </si>
-  <si>
-    <t>2.10%</t>
-  </si>
-  <si>
-    <t>2.08%</t>
-  </si>
-  <si>
-    <t>2.01%</t>
-  </si>
-  <si>
-    <t>1.91%</t>
-  </si>
-  <si>
-    <t>1.89%</t>
-  </si>
-  <si>
-    <t>1.80%</t>
-  </si>
-  <si>
-    <t>1.64%</t>
-  </si>
-  <si>
-    <t>1.47%</t>
-  </si>
-  <si>
-    <t>1.37%</t>
-  </si>
-  <si>
-    <t>1.35%</t>
-  </si>
-  <si>
-    <t>1.31%</t>
-  </si>
-  <si>
-    <t>1.22%</t>
-  </si>
-  <si>
-    <t>贵州茅台</t>
-  </si>
-  <si>
-    <t>五粮液</t>
-  </si>
-  <si>
-    <t>隆基股份</t>
-  </si>
-  <si>
-    <t>韦尔股份</t>
-  </si>
-  <si>
-    <t>伊利股份</t>
-  </si>
-  <si>
-    <t>阳光电源</t>
-  </si>
-  <si>
-    <t>泸州老窖</t>
-  </si>
-  <si>
-    <t>海天味业</t>
-  </si>
-  <si>
-    <t>中环股份</t>
-  </si>
-  <si>
-    <t>牧原股份</t>
-  </si>
-  <si>
-    <t>山西汾酒</t>
-  </si>
-  <si>
-    <t>通威股份</t>
-  </si>
-  <si>
-    <t>卓胜微</t>
-  </si>
-  <si>
-    <t>恒瑞医药</t>
-  </si>
-  <si>
-    <t>洋河股份</t>
-  </si>
-  <si>
-    <t>东方财富</t>
-  </si>
-  <si>
-    <t>兆易创新</t>
-  </si>
-  <si>
-    <t>海康威视</t>
-  </si>
-  <si>
-    <t>三安光电</t>
-  </si>
-  <si>
-    <t>先导智能</t>
-  </si>
-  <si>
-    <t>茅台酒</t>
-  </si>
-  <si>
-    <t>酒类</t>
-  </si>
-  <si>
-    <t>太阳能组件</t>
-  </si>
-  <si>
-    <t>CMOS图像传感器产品</t>
-  </si>
-  <si>
-    <t>液体乳</t>
-  </si>
-  <si>
-    <t>电站系统集成(不含自制产品)</t>
-  </si>
-  <si>
-    <t>中高档酒类</t>
-  </si>
-  <si>
-    <t>酱油</t>
-  </si>
-  <si>
-    <t>新能源材料</t>
-  </si>
-  <si>
-    <t>生猪</t>
-  </si>
-  <si>
-    <t>白酒</t>
-  </si>
-  <si>
-    <t>配合饲料</t>
-  </si>
-  <si>
-    <t>射频开关</t>
-  </si>
-  <si>
-    <t>抗肿瘤</t>
-  </si>
-  <si>
-    <t>证券经纪业务</t>
-  </si>
-  <si>
-    <t>存储芯片销售</t>
-  </si>
-  <si>
-    <t>前端音视频产品</t>
-  </si>
-  <si>
-    <t>化合物半导体产品</t>
-  </si>
-  <si>
-    <t>锂电池设备</t>
-  </si>
-  <si>
-    <t>9.82%</t>
-  </si>
-  <si>
-    <t>6.77%</t>
-  </si>
-  <si>
-    <t>32.52%</t>
-  </si>
-  <si>
-    <t>30.18%</t>
-  </si>
-  <si>
-    <t>-13.35%</t>
-  </si>
-  <si>
-    <t>61.09%</t>
-  </si>
-  <si>
-    <t>4.71%</t>
-  </si>
-  <si>
-    <t>-13.36%</t>
-  </si>
-  <si>
-    <t>44.06%</t>
-  </si>
-  <si>
-    <t>18.14%</t>
-  </si>
-  <si>
-    <t>22.60%</t>
-  </si>
-  <si>
-    <t>9.78%</t>
-  </si>
-  <si>
-    <t>60.36%</t>
-  </si>
-  <si>
-    <t>-26.78%</t>
-  </si>
-  <si>
-    <t>-6.90%</t>
-  </si>
-  <si>
-    <t>36.19%</t>
-  </si>
-  <si>
-    <t>28.48%</t>
-  </si>
-  <si>
-    <t>36.18%</t>
-  </si>
-  <si>
-    <t>17.00%</t>
-  </si>
-  <si>
-    <t>11.23%</t>
-  </si>
-  <si>
-    <t>一级标签</t>
-  </si>
-  <si>
-    <t>标签占比</t>
-  </si>
-  <si>
-    <t>食品饮料</t>
-  </si>
-  <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
-    <t>集成电路</t>
-  </si>
-  <si>
-    <t>饲料养殖</t>
-  </si>
-  <si>
-    <t>电子</t>
-  </si>
-  <si>
-    <t>医药生物</t>
-  </si>
-  <si>
-    <t>证券</t>
-  </si>
-  <si>
-    <t>锂电池</t>
-  </si>
-  <si>
-    <t>40.18%</t>
-  </si>
-  <si>
-    <t>21.84%</t>
-  </si>
-  <si>
-    <t>13.65%</t>
-  </si>
-  <si>
-    <t>8.71%</t>
-  </si>
-  <si>
-    <t>5.81%</t>
-  </si>
-  <si>
-    <t>3.93%</t>
-  </si>
-  <si>
-    <t>3.21%</t>
-  </si>
-  <si>
-    <t>2.66%</t>
+    <t>6.90%</t>
+  </si>
+  <si>
+    <t>2.81%</t>
+  </si>
+  <si>
+    <t>2.21%</t>
+  </si>
+  <si>
+    <t>1.60%</t>
+  </si>
+  <si>
+    <t>1.33%</t>
+  </si>
+  <si>
+    <t>1.18%</t>
   </si>
 </sst>
 </file>
@@ -945,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1008,19 +1008,19 @@
         <v>44200</v>
       </c>
       <c r="B3">
+        <v>1.03771535910305</v>
+      </c>
+      <c r="C3">
+        <v>1.029338939500117</v>
+      </c>
+      <c r="D3">
+        <v>1.026622902990518</v>
+      </c>
+      <c r="E3">
         <v>1.054286865447435</v>
       </c>
-      <c r="C3">
-        <v>1.026622902990518</v>
-      </c>
-      <c r="D3">
-        <v>1.029338939500117</v>
-      </c>
-      <c r="E3">
-        <v>1.03771535910305</v>
-      </c>
       <c r="F3">
-        <v>1.035882579173497</v>
+        <v>1.038099454347063</v>
       </c>
       <c r="G3">
         <v>1.018168368380631</v>
@@ -1034,19 +1034,19 @@
         <v>44201</v>
       </c>
       <c r="B4">
+        <v>1.088139473452496</v>
+      </c>
+      <c r="C4">
+        <v>1.05638869423032</v>
+      </c>
+      <c r="D4">
+        <v>1.075857038657914</v>
+      </c>
+      <c r="E4">
         <v>1.055649694073586</v>
       </c>
-      <c r="C4">
-        <v>1.075857038657914</v>
-      </c>
-      <c r="D4">
-        <v>1.05638869423032</v>
-      </c>
-      <c r="E4">
-        <v>1.088139473452496</v>
-      </c>
       <c r="F4">
-        <v>1.070050439899684</v>
+        <v>1.067967010307474</v>
       </c>
       <c r="G4">
         <v>1.027111201157197</v>
@@ -1060,19 +1060,19 @@
         <v>44202</v>
       </c>
       <c r="B5">
+        <v>1.09644565759737</v>
+      </c>
+      <c r="C5">
+        <v>1.064424199953282</v>
+      </c>
+      <c r="D5">
+        <v>1.060630926331145</v>
+      </c>
+      <c r="E5">
         <v>1.054249203785171</v>
       </c>
-      <c r="C5">
-        <v>1.060630926331145</v>
-      </c>
-      <c r="D5">
-        <v>1.064424199953282</v>
-      </c>
-      <c r="E5">
-        <v>1.09644565759737</v>
-      </c>
       <c r="F5">
-        <v>1.072616675111489</v>
+        <v>1.065258318721996</v>
       </c>
       <c r="G5">
         <v>1.025290909062353</v>
@@ -1086,19 +1086,19 @@
         <v>44203</v>
       </c>
       <c r="B6">
+        <v>1.110211029908133</v>
+      </c>
+      <c r="C6">
+        <v>1.093062368605466</v>
+      </c>
+      <c r="D6">
+        <v>1.069383661560904</v>
+      </c>
+      <c r="E6">
         <v>1.096142342393262</v>
       </c>
-      <c r="C6">
-        <v>1.069383661560904</v>
-      </c>
-      <c r="D6">
-        <v>1.093062368605466</v>
-      </c>
-      <c r="E6">
-        <v>1.110211029908133</v>
-      </c>
       <c r="F6">
-        <v>1.095219642181696</v>
+        <v>1.089180059052187</v>
       </c>
       <c r="G6">
         <v>1.026858339183711</v>
@@ -1112,19 +1112,19 @@
         <v>44204</v>
       </c>
       <c r="B7">
+        <v>1.080948607320008</v>
+      </c>
+      <c r="C7">
+        <v>1.086054660126139</v>
+      </c>
+      <c r="D7">
+        <v>1.066648431801605</v>
+      </c>
+      <c r="E7">
         <v>1.072662407051975</v>
       </c>
-      <c r="C7">
-        <v>1.066648431801605</v>
-      </c>
-      <c r="D7">
-        <v>1.086054660126139</v>
-      </c>
-      <c r="E7">
-        <v>1.080948607320008</v>
-      </c>
       <c r="F7">
-        <v>1.078793920862337</v>
+        <v>1.074363132287526</v>
       </c>
       <c r="G7">
         <v>1.029917812005761</v>
@@ -1138,19 +1138,19 @@
         <v>44207</v>
       </c>
       <c r="B8">
+        <v>1.047577118370462</v>
+      </c>
+      <c r="C8">
+        <v>1.077785564120533</v>
+      </c>
+      <c r="D8">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="E8">
         <v>1.028778210639819</v>
       </c>
-      <c r="C8">
-        <v>1.083333333333333</v>
-      </c>
-      <c r="D8">
-        <v>1.077785564120533</v>
-      </c>
-      <c r="E8">
-        <v>1.047577118370462</v>
-      </c>
       <c r="F8">
-        <v>1.060428647697464</v>
+        <v>1.058308465534609</v>
       </c>
       <c r="G8">
         <v>1.013866573688848</v>
@@ -1164,19 +1164,19 @@
         <v>44208</v>
       </c>
       <c r="B9">
+        <v>1.069736726248129</v>
+      </c>
+      <c r="C9">
+        <v>1.108759635599159</v>
+      </c>
+      <c r="D9">
+        <v>1.109318016046681</v>
+      </c>
+      <c r="E9">
         <v>1.065146709907584</v>
       </c>
-      <c r="C9">
-        <v>1.109318016046681</v>
-      </c>
-      <c r="D9">
-        <v>1.108759635599159</v>
-      </c>
-      <c r="E9">
-        <v>1.069736726248129</v>
-      </c>
       <c r="F9">
-        <v>1.08856280282183</v>
+        <v>1.087917741078947</v>
       </c>
       <c r="G9">
         <v>1.027660901099557</v>
@@ -1190,19 +1190,19 @@
         <v>44209</v>
       </c>
       <c r="B10">
+        <v>1.058201989962138</v>
+      </c>
+      <c r="C10">
+        <v>1.097827610371409</v>
+      </c>
+      <c r="D10">
+        <v>1.12946754194019</v>
+      </c>
+      <c r="E10">
         <v>1.05656533971889</v>
       </c>
-      <c r="C10">
-        <v>1.12946754194019</v>
-      </c>
-      <c r="D10">
-        <v>1.097827610371409</v>
-      </c>
-      <c r="E10">
-        <v>1.058201989962138</v>
-      </c>
       <c r="F10">
-        <v>1.083115357992114</v>
+        <v>1.087915883004199</v>
       </c>
       <c r="G10">
         <v>1.020386015005238</v>
@@ -1216,19 +1216,19 @@
         <v>44210</v>
       </c>
       <c r="B11">
+        <v>1.032608376625283</v>
+      </c>
+      <c r="C11">
+        <v>1.072039243167484</v>
+      </c>
+      <c r="D11">
+        <v>1.1259117432531</v>
+      </c>
+      <c r="E11">
         <v>1.028610393875685</v>
       </c>
-      <c r="C11">
-        <v>1.1259117432531</v>
-      </c>
-      <c r="D11">
-        <v>1.072039243167484</v>
-      </c>
-      <c r="E11">
-        <v>1.032608376625283</v>
-      </c>
       <c r="F11">
-        <v>1.060802477843507</v>
+        <v>1.068782400617269</v>
       </c>
       <c r="G11">
         <v>1.011430617658561</v>
@@ -1242,19 +1242,19 @@
         <v>44211</v>
       </c>
       <c r="B12">
+        <v>1.013354465674621</v>
+      </c>
+      <c r="C12">
+        <v>1.070450829245503</v>
+      </c>
+      <c r="D12">
+        <v>1.104850474106492</v>
+      </c>
+      <c r="E12">
         <v>1.0260168339186</v>
       </c>
-      <c r="C12">
-        <v>1.104850474106492</v>
-      </c>
-      <c r="D12">
-        <v>1.070450829245503</v>
-      </c>
-      <c r="E12">
-        <v>1.013354465674621</v>
-      </c>
       <c r="F12">
-        <v>1.049903189687907</v>
+        <v>1.057433111784701</v>
       </c>
       <c r="G12">
         <v>1.007914108598721</v>
@@ -1268,19 +1268,19 @@
         <v>44214</v>
       </c>
       <c r="B13">
+        <v>1.011534736285991</v>
+      </c>
+      <c r="C13">
+        <v>1.088483999065639</v>
+      </c>
+      <c r="D13">
+        <v>1.166940189642597</v>
+      </c>
+      <c r="E13">
         <v>1.045476823103116</v>
       </c>
-      <c r="C13">
-        <v>1.166940189642597</v>
-      </c>
-      <c r="D13">
-        <v>1.088483999065639</v>
-      </c>
-      <c r="E13">
-        <v>1.011534736285991</v>
-      </c>
       <c r="F13">
-        <v>1.069117074832809</v>
+        <v>1.087100799215862</v>
       </c>
       <c r="G13">
         <v>1.023142367573358</v>
@@ -1294,19 +1294,19 @@
         <v>44215</v>
       </c>
       <c r="B14">
+        <v>0.9922808253353291</v>
+      </c>
+      <c r="C14">
+        <v>1.067414155571128</v>
+      </c>
+      <c r="D14">
+        <v>1.149343544857768</v>
+      </c>
+      <c r="E14">
         <v>1.01723215267869</v>
       </c>
-      <c r="C14">
-        <v>1.149343544857768</v>
-      </c>
-      <c r="D14">
-        <v>1.067414155571128</v>
-      </c>
-      <c r="E14">
-        <v>0.9922808253353291</v>
-      </c>
       <c r="F14">
-        <v>1.048017212280329</v>
+        <v>1.065118126941129</v>
       </c>
       <c r="G14">
         <v>1.017160061629216</v>
@@ -1320,19 +1320,19 @@
         <v>44216</v>
       </c>
       <c r="B15">
+        <v>0.9986205277215228</v>
+      </c>
+      <c r="C15">
+        <v>1.096332632562485</v>
+      </c>
+      <c r="D15">
+        <v>1.159099197665937</v>
+      </c>
+      <c r="E15">
         <v>1.051551637967054</v>
       </c>
-      <c r="C15">
-        <v>1.159099197665937</v>
-      </c>
-      <c r="D15">
-        <v>1.096332632562485</v>
-      </c>
-      <c r="E15">
-        <v>0.9986205277215228</v>
-      </c>
       <c r="F15">
-        <v>1.067145184951331</v>
+        <v>1.085656813007168</v>
       </c>
       <c r="G15">
         <v>1.026434284942462</v>
@@ -1346,19 +1346,19 @@
         <v>44217</v>
       </c>
       <c r="B16">
+        <v>1.019840920430865</v>
+      </c>
+      <c r="C16">
+        <v>1.123475823405746</v>
+      </c>
+      <c r="D16">
+        <v>1.159828592268417</v>
+      </c>
+      <c r="E16">
         <v>1.096222028615883</v>
       </c>
-      <c r="C16">
-        <v>1.159828592268417</v>
-      </c>
-      <c r="D16">
-        <v>1.123475823405746</v>
-      </c>
-      <c r="E16">
-        <v>1.019840920430865</v>
-      </c>
       <c r="F16">
-        <v>1.090823131016413</v>
+        <v>1.108860551344043</v>
       </c>
       <c r="G16">
         <v>1.04011081950838</v>
@@ -1372,19 +1372,19 @@
         <v>44218</v>
       </c>
       <c r="B17">
+        <v>1.018725602418479</v>
+      </c>
+      <c r="C17">
+        <v>1.149544498948844</v>
+      </c>
+      <c r="D17">
+        <v>1.146517140773158</v>
+      </c>
+      <c r="E17">
         <v>1.1325318961628</v>
       </c>
-      <c r="C17">
-        <v>1.146517140773158</v>
-      </c>
-      <c r="D17">
-        <v>1.149544498948844</v>
-      </c>
-      <c r="E17">
-        <v>1.018725602418479</v>
-      </c>
       <c r="F17">
-        <v>1.10296746973033</v>
+        <v>1.120692099421311</v>
       </c>
       <c r="G17">
         <v>1.042515364113389</v>
@@ -1398,19 +1398,19 @@
         <v>44221</v>
       </c>
       <c r="B18">
+        <v>1.055443045405183</v>
+      </c>
+      <c r="C18">
+        <v>1.148329829479094</v>
+      </c>
+      <c r="D18">
+        <v>1.133205689277899</v>
+      </c>
+      <c r="E18">
         <v>1.132837411620351</v>
       </c>
-      <c r="C18">
-        <v>1.133205689277899</v>
-      </c>
-      <c r="D18">
-        <v>1.148329829479094</v>
-      </c>
-      <c r="E18">
-        <v>1.055443045405183</v>
-      </c>
       <c r="F18">
-        <v>1.112472375864514</v>
+        <v>1.12243561202675</v>
       </c>
       <c r="G18">
         <v>1.043693292561303</v>
@@ -1424,19 +1424,19 @@
         <v>44222</v>
       </c>
       <c r="B19">
+        <v>1.047048809838279</v>
+      </c>
+      <c r="C19">
+        <v>1.114459238495679</v>
+      </c>
+      <c r="D19">
+        <v>1.109135667396061</v>
+      </c>
+      <c r="E19">
         <v>1.116352384129589</v>
       </c>
-      <c r="C19">
-        <v>1.109135667396061</v>
-      </c>
-      <c r="D19">
-        <v>1.114459238495679</v>
-      </c>
-      <c r="E19">
-        <v>1.047048809838279</v>
-      </c>
       <c r="F19">
-        <v>1.091630624709567</v>
+        <v>1.101867425220238</v>
       </c>
       <c r="G19">
         <v>1.026047924411546</v>
@@ -1450,19 +1450,19 @@
         <v>44223</v>
       </c>
       <c r="B20">
+        <v>1.038419770479293</v>
+      </c>
+      <c r="C20">
+        <v>1.130530249941603</v>
+      </c>
+      <c r="D20">
+        <v>1.103574033552152</v>
+      </c>
+      <c r="E20">
         <v>1.160845669263501</v>
       </c>
-      <c r="C20">
-        <v>1.103574033552152</v>
-      </c>
-      <c r="D20">
-        <v>1.130530249941603</v>
-      </c>
-      <c r="E20">
-        <v>1.038419770479293</v>
-      </c>
       <c r="F20">
-        <v>1.100704856217557</v>
+        <v>1.115980005400718</v>
       </c>
       <c r="G20">
         <v>1.02984870687015</v>
@@ -1476,19 +1476,19 @@
         <v>44224</v>
       </c>
       <c r="B21">
+        <v>1.020017023274926</v>
+      </c>
+      <c r="C21">
+        <v>1.086241532352254</v>
+      </c>
+      <c r="D21">
+        <v>1.059172137126185</v>
+      </c>
+      <c r="E21">
         <v>1.101433242986627</v>
       </c>
-      <c r="C21">
-        <v>1.059172137126185</v>
-      </c>
-      <c r="D21">
-        <v>1.086241532352254</v>
-      </c>
-      <c r="E21">
-        <v>1.020017023274926</v>
-      </c>
       <c r="F21">
-        <v>1.062368237976148</v>
+        <v>1.071063729893849</v>
       </c>
       <c r="G21">
         <v>1.007424090364388</v>
@@ -1502,19 +1502,19 @@
         <v>44225</v>
       </c>
       <c r="B22">
+        <v>1.018402747204368</v>
+      </c>
+      <c r="C22">
+        <v>1.079280541929456</v>
+      </c>
+      <c r="D22">
+        <v>1.039296134208607</v>
+      </c>
+      <c r="E22">
         <v>1.078692635912157</v>
       </c>
-      <c r="C22">
-        <v>1.039296134208607</v>
-      </c>
-      <c r="D22">
-        <v>1.079280541929456</v>
-      </c>
-      <c r="E22">
-        <v>1.018402747204368</v>
-      </c>
       <c r="F22">
-        <v>1.052293576334692</v>
+        <v>1.055542453292602</v>
       </c>
       <c r="G22">
         <v>0.9967065120596316</v>
@@ -1528,19 +1528,19 @@
         <v>44228</v>
       </c>
       <c r="B23">
+        <v>1.021543247923454</v>
+      </c>
+      <c r="C23">
+        <v>1.089792104648447</v>
+      </c>
+      <c r="D23">
+        <v>1.044766593727206</v>
+      </c>
+      <c r="E23">
         <v>1.049587545687988</v>
       </c>
-      <c r="C23">
-        <v>1.044766593727206</v>
-      </c>
-      <c r="D23">
-        <v>1.089792104648447</v>
-      </c>
-      <c r="E23">
-        <v>1.021543247923454</v>
-      </c>
       <c r="F23">
-        <v>1.05278087004931</v>
+        <v>1.050063875944237</v>
       </c>
       <c r="G23">
         <v>1.004110184997589</v>
@@ -1554,19 +1554,19 @@
         <v>44229</v>
       </c>
       <c r="B24">
+        <v>1.051333979043761</v>
+      </c>
+      <c r="C24">
+        <v>1.112543798177996</v>
+      </c>
+      <c r="D24">
+        <v>1.053336980306346</v>
+      </c>
+      <c r="E24">
         <v>1.068398026010979</v>
       </c>
-      <c r="C24">
-        <v>1.053336980306346</v>
-      </c>
-      <c r="D24">
-        <v>1.112543798177996</v>
-      </c>
-      <c r="E24">
-        <v>1.051333979043761</v>
-      </c>
       <c r="F24">
-        <v>1.074774617557125</v>
+        <v>1.068031774212416</v>
       </c>
       <c r="G24">
         <v>1.013770768841751</v>
@@ -1580,19 +1580,19 @@
         <v>44230</v>
       </c>
       <c r="B25">
+        <v>1.057116022423762</v>
+      </c>
+      <c r="C25">
+        <v>1.1083391730904</v>
+      </c>
+      <c r="D25">
+        <v>1.016502552881109</v>
+      </c>
+      <c r="E25">
         <v>1.065269039940615</v>
       </c>
-      <c r="C25">
-        <v>1.016502552881109</v>
-      </c>
-      <c r="D25">
-        <v>1.1083391730904</v>
-      </c>
-      <c r="E25">
-        <v>1.057116022423762</v>
-      </c>
       <c r="F25">
-        <v>1.068501385299367</v>
+        <v>1.055112008868576</v>
       </c>
       <c r="G25">
         <v>1.00506038061224</v>
@@ -1606,19 +1606,19 @@
         <v>44231</v>
       </c>
       <c r="B26">
+        <v>1.059874966980717</v>
+      </c>
+      <c r="C26">
+        <v>1.101331464611072</v>
+      </c>
+      <c r="D26">
+        <v>1.015134938001459</v>
+      </c>
+      <c r="E26">
         <v>1.060847876045505</v>
       </c>
-      <c r="C26">
-        <v>1.015134938001459</v>
-      </c>
-      <c r="D26">
-        <v>1.101331464611072</v>
-      </c>
-      <c r="E26">
-        <v>1.059874966980717</v>
-      </c>
       <c r="F26">
-        <v>1.066115200813274</v>
+        <v>1.052479422006102</v>
       </c>
       <c r="G26">
         <v>0.9939815709167896</v>
@@ -1632,19 +1632,19 @@
         <v>44232</v>
       </c>
       <c r="B27">
+        <v>1.069208417715946</v>
+      </c>
+      <c r="C27">
+        <v>1.100023359028264</v>
+      </c>
+      <c r="D27">
+        <v>0.9910649161196207</v>
+      </c>
+      <c r="E27">
         <v>1.05917508462052</v>
       </c>
-      <c r="C27">
-        <v>0.9910649161196207</v>
-      </c>
-      <c r="D27">
-        <v>1.100023359028264</v>
-      </c>
-      <c r="E27">
-        <v>1.069208417715946</v>
-      </c>
       <c r="F27">
-        <v>1.064387286451413</v>
+        <v>1.045348602290762</v>
       </c>
       <c r="G27">
         <v>0.9800160512383169</v>
@@ -1658,19 +1658,19 @@
         <v>44235</v>
       </c>
       <c r="B28">
+        <v>1.089577646678994</v>
+      </c>
+      <c r="C28">
+        <v>1.126605933193179</v>
+      </c>
+      <c r="D28">
+        <v>1.017961342086069</v>
+      </c>
+      <c r="E28">
         <v>1.060683099236172</v>
       </c>
-      <c r="C28">
-        <v>1.017961342086069</v>
-      </c>
-      <c r="D28">
-        <v>1.126605933193179</v>
-      </c>
-      <c r="E28">
-        <v>1.089577646678994</v>
-      </c>
       <c r="F28">
-        <v>1.084710136382598</v>
+        <v>1.062703874214609</v>
       </c>
       <c r="G28">
         <v>0.9930973392952219</v>
@@ -1684,19 +1684,19 @@
         <v>44236</v>
       </c>
       <c r="B29">
+        <v>1.114848404801738</v>
+      </c>
+      <c r="C29">
+        <v>1.157439850502219</v>
+      </c>
+      <c r="D29">
+        <v>1.031637490882567</v>
+      </c>
+      <c r="E29">
         <v>1.097629640279896</v>
       </c>
-      <c r="C29">
-        <v>1.031637490882567</v>
-      </c>
-      <c r="D29">
-        <v>1.157439850502219</v>
-      </c>
-      <c r="E29">
-        <v>1.114848404801738</v>
-      </c>
       <c r="F29">
-        <v>1.111830536547925</v>
+        <v>1.088947156685286</v>
       </c>
       <c r="G29">
         <v>1.014256075362292</v>
@@ -1710,19 +1710,19 @@
         <v>44237</v>
       </c>
       <c r="B30">
+        <v>1.151976754424584</v>
+      </c>
+      <c r="C30">
+        <v>1.181593085727634</v>
+      </c>
+      <c r="D30">
+        <v>1.039296134208607</v>
+      </c>
+      <c r="E30">
         <v>1.124629843281323</v>
       </c>
-      <c r="C30">
-        <v>1.039296134208607</v>
-      </c>
-      <c r="D30">
-        <v>1.181593085727634</v>
-      </c>
-      <c r="E30">
-        <v>1.151976754424584</v>
-      </c>
       <c r="F30">
-        <v>1.13794546342352</v>
+        <v>1.110802445397554</v>
       </c>
       <c r="G30">
         <v>1.024824449396979</v>
@@ -1736,19 +1736,19 @@
         <v>44245</v>
       </c>
       <c r="B31">
+        <v>1.118106307416865</v>
+      </c>
+      <c r="C31">
+        <v>1.154122868488671</v>
+      </c>
+      <c r="D31">
+        <v>1.062727935813275</v>
+      </c>
+      <c r="E31">
         <v>1.115415402505215</v>
       </c>
-      <c r="C31">
-        <v>1.062727935813275</v>
-      </c>
-      <c r="D31">
-        <v>1.154122868488671</v>
-      </c>
-      <c r="E31">
-        <v>1.118106307416865</v>
-      </c>
       <c r="F31">
-        <v>1.12011999556297</v>
+        <v>1.105066261549043</v>
       </c>
       <c r="G31">
         <v>1.038860644782327</v>
@@ -1762,19 +1762,19 @@
         <v>44246</v>
       </c>
       <c r="B32">
+        <v>1.135041530920724</v>
+      </c>
+      <c r="C32">
+        <v>1.136650315346882</v>
+      </c>
+      <c r="D32">
+        <v>1.057895696571846</v>
+      </c>
+      <c r="E32">
         <v>1.094467242854446</v>
       </c>
-      <c r="C32">
-        <v>1.057895696571846</v>
-      </c>
-      <c r="D32">
-        <v>1.136650315346882</v>
-      </c>
-      <c r="E32">
-        <v>1.135041530920724</v>
-      </c>
       <c r="F32">
-        <v>1.11556000897078</v>
+        <v>1.096467383876169</v>
       </c>
       <c r="G32">
         <v>1.052829305603327</v>
@@ -1788,19 +1788,19 @@
         <v>44249</v>
       </c>
       <c r="B33">
+        <v>1.084118458513105</v>
+      </c>
+      <c r="C33">
+        <v>1.088203690726466</v>
+      </c>
+      <c r="D33">
+        <v>1.032184536834428</v>
+      </c>
+      <c r="E33">
         <v>1.059313993666311</v>
       </c>
-      <c r="C33">
-        <v>1.032184536834428</v>
-      </c>
-      <c r="D33">
-        <v>1.088203690726466</v>
-      </c>
-      <c r="E33">
-        <v>1.084118458513105</v>
-      </c>
       <c r="F33">
-        <v>1.072421059434184</v>
+        <v>1.059489280435971</v>
       </c>
       <c r="G33">
         <v>1.045538713796369</v>
@@ -1814,19 +1814,19 @@
         <v>44250</v>
       </c>
       <c r="B34">
+        <v>1.074139297349652</v>
+      </c>
+      <c r="C34">
+        <v>1.083111422564821</v>
+      </c>
+      <c r="D34">
+        <v>1.021243617797228</v>
+      </c>
+      <c r="E34">
         <v>1.049910597181106</v>
       </c>
-      <c r="C34">
-        <v>1.021243617797228</v>
-      </c>
-      <c r="D34">
-        <v>1.083111422564821</v>
-      </c>
-      <c r="E34">
-        <v>1.074139297349652</v>
-      </c>
       <c r="F34">
-        <v>1.063988954118093</v>
+        <v>1.050213513328311</v>
       </c>
       <c r="G34">
         <v>1.041481928221752</v>
@@ -1840,19 +1840,19 @@
         <v>44251</v>
       </c>
       <c r="B35">
+        <v>1.037363153414928</v>
+      </c>
+      <c r="C35">
+        <v>1.047839289885541</v>
+      </c>
+      <c r="D35">
+        <v>1.028902261123268</v>
+      </c>
+      <c r="E35">
         <v>1.015566538924763</v>
       </c>
-      <c r="C35">
-        <v>1.028902261123268</v>
-      </c>
-      <c r="D35">
-        <v>1.047839289885541</v>
-      </c>
-      <c r="E35">
-        <v>1.037363153414928</v>
-      </c>
       <c r="F35">
-        <v>1.03567650229732</v>
+        <v>1.02915911937693</v>
       </c>
       <c r="G35">
         <v>1.026555218929781</v>
@@ -1866,19 +1866,19 @@
         <v>44252</v>
       </c>
       <c r="B36">
+        <v>1.027530744621526</v>
+      </c>
+      <c r="C36">
+        <v>1.044522307871993</v>
+      </c>
+      <c r="D36">
+        <v>1.020696571845368</v>
+      </c>
+      <c r="E36">
         <v>1.01096638361685</v>
       </c>
-      <c r="C36">
-        <v>1.020696571845368</v>
-      </c>
-      <c r="D36">
-        <v>1.044522307871993</v>
-      </c>
-      <c r="E36">
-        <v>1.027530744621526</v>
-      </c>
       <c r="F36">
-        <v>1.029160209751438</v>
+        <v>1.02269779422643</v>
       </c>
       <c r="G36">
         <v>1.020737822968348</v>
@@ -1892,19 +1892,19 @@
         <v>44253</v>
       </c>
       <c r="B37">
+        <v>1.001085967538376</v>
+      </c>
+      <c r="C37">
+        <v>1.024667133847232</v>
+      </c>
+      <c r="D37">
+        <v>1.00656455142232</v>
+      </c>
+      <c r="E37">
         <v>1.004382151141824</v>
       </c>
-      <c r="C37">
-        <v>1.00656455142232</v>
-      </c>
-      <c r="D37">
-        <v>1.024667133847232</v>
-      </c>
-      <c r="E37">
-        <v>1.001085967538376</v>
-      </c>
       <c r="F37">
-        <v>1.010359462893155</v>
+        <v>1.007990439081721</v>
       </c>
       <c r="G37">
         <v>0.9995665223311676</v>
@@ -1918,19 +1918,19 @@
         <v>44256</v>
       </c>
       <c r="B38">
+        <v>1.011886941974113</v>
+      </c>
+      <c r="C38">
+        <v>1.053585610838589</v>
+      </c>
+      <c r="D38">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="E38">
         <v>1.030001004310994</v>
       </c>
-      <c r="C38">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="D38">
-        <v>1.053585610838589</v>
-      </c>
-      <c r="E38">
-        <v>1.011886941974113</v>
-      </c>
       <c r="F38">
-        <v>1.033789446494394</v>
+        <v>1.034780665400787</v>
       </c>
       <c r="G38">
         <v>1.019055741144727</v>
@@ -1944,19 +1944,19 @@
         <v>44257</v>
       </c>
       <c r="B39">
+        <v>0.9921634234392885</v>
+      </c>
+      <c r="C39">
+        <v>1.0434010745153</v>
+      </c>
+      <c r="D39">
+        <v>1.052060539752006</v>
+      </c>
+      <c r="E39">
         <v>1.020928709569586</v>
       </c>
-      <c r="C39">
-        <v>1.052060539752006</v>
-      </c>
-      <c r="D39">
-        <v>1.0434010745153</v>
-      </c>
-      <c r="E39">
-        <v>0.9921634234392885</v>
-      </c>
       <c r="F39">
-        <v>1.024144456709685</v>
+        <v>1.030132416928406</v>
       </c>
       <c r="G39">
         <v>1.010400322909452</v>
@@ -1970,19 +1970,19 @@
         <v>44258</v>
       </c>
       <c r="B40">
+        <v>1.004901529159696</v>
+      </c>
+      <c r="C40">
+        <v>1.052043914973137</v>
+      </c>
+      <c r="D40">
+        <v>1.053154631655726</v>
+      </c>
+      <c r="E40">
         <v>1.015002036206762</v>
       </c>
-      <c r="C40">
-        <v>1.053154631655726</v>
-      </c>
-      <c r="D40">
-        <v>1.052043914973137</v>
-      </c>
-      <c r="E40">
-        <v>1.004901529159696</v>
-      </c>
       <c r="F40">
-        <v>1.030378630100458</v>
+        <v>1.032172425897203</v>
       </c>
       <c r="G40">
         <v>1.024758485403896</v>
@@ -1996,19 +1996,19 @@
         <v>44259</v>
       </c>
       <c r="B41">
+        <v>0.9637521645974583</v>
+      </c>
+      <c r="C41">
+        <v>0.9999065638869423</v>
+      </c>
+      <c r="D41">
+        <v>1.017687819110139</v>
+      </c>
+      <c r="E41">
         <v>0.951174497796652</v>
       </c>
-      <c r="C41">
-        <v>1.017687819110139</v>
-      </c>
-      <c r="D41">
-        <v>0.9999065638869423</v>
-      </c>
-      <c r="E41">
-        <v>0.9637521645974583</v>
-      </c>
       <c r="F41">
-        <v>0.9827139742740066</v>
+        <v>0.9835465484215891</v>
       </c>
       <c r="G41">
         <v>1.005478152568434</v>
@@ -2022,19 +2022,19 @@
         <v>44260</v>
       </c>
       <c r="B42">
+        <v>0.9635760617533974</v>
+      </c>
+      <c r="C42">
+        <v>1.001915440317683</v>
+      </c>
+      <c r="D42">
+        <v>1.009664478482859</v>
+      </c>
+      <c r="E42">
         <v>0.9540098186036451</v>
       </c>
-      <c r="C42">
-        <v>1.009664478482859</v>
-      </c>
-      <c r="D42">
-        <v>1.001915440317683</v>
-      </c>
-      <c r="E42">
-        <v>0.9635760617533974</v>
-      </c>
       <c r="F42">
-        <v>0.9824368261881622</v>
+        <v>0.9821460733906301</v>
       </c>
       <c r="G42">
         <v>1.005715308829281</v>
@@ -2048,19 +2048,19 @@
         <v>44263</v>
       </c>
       <c r="B43">
+        <v>0.915881541486895</v>
+      </c>
+      <c r="C43">
+        <v>0.9507591684185938</v>
+      </c>
+      <c r="D43">
+        <v>0.9674507658643325</v>
+      </c>
+      <c r="E43">
         <v>0.9020909090602025</v>
       </c>
-      <c r="C43">
-        <v>0.9674507658643325</v>
-      </c>
-      <c r="D43">
-        <v>0.9507591684185938</v>
-      </c>
-      <c r="E43">
-        <v>0.915881541486895</v>
-      </c>
       <c r="F43">
-        <v>0.9338135190059823</v>
+        <v>0.9342776734090297</v>
       </c>
       <c r="G43">
         <v>0.9826137761087841</v>
@@ -2074,19 +2074,19 @@
         <v>44264</v>
       </c>
       <c r="B44">
+        <v>0.8903172786240497</v>
+      </c>
+      <c r="C44">
+        <v>0.9195047886007942</v>
+      </c>
+      <c r="D44">
+        <v>0.9205871626549964</v>
+      </c>
+      <c r="E44">
         <v>0.8718393055121925</v>
       </c>
-      <c r="C44">
-        <v>0.9205871626549964</v>
-      </c>
-      <c r="D44">
-        <v>0.9195047886007942</v>
-      </c>
-      <c r="E44">
-        <v>0.8903172786240497</v>
-      </c>
       <c r="F44">
-        <v>0.9019537817726206</v>
+        <v>0.8991704859233958</v>
       </c>
       <c r="G44">
         <v>0.9593049279814547</v>
@@ -2100,19 +2100,19 @@
         <v>44265</v>
       </c>
       <c r="B45">
+        <v>0.9041120014088229</v>
+      </c>
+      <c r="C45">
+        <v>0.9369306236860547</v>
+      </c>
+      <c r="D45">
+        <v>0.9214989059080962</v>
+      </c>
+      <c r="E45">
         <v>0.8783817104609686</v>
       </c>
-      <c r="C45">
-        <v>0.9214989059080962</v>
-      </c>
-      <c r="D45">
-        <v>0.9369306236860547</v>
-      </c>
-      <c r="E45">
-        <v>0.9041120014088229</v>
-      </c>
       <c r="F45">
-        <v>0.9135237710640507</v>
+        <v>0.9069378496679206</v>
       </c>
       <c r="G45">
         <v>0.952121135020441</v>
@@ -2126,19 +2126,19 @@
         <v>44266</v>
       </c>
       <c r="B46">
+        <v>0.9282967919931907</v>
+      </c>
+      <c r="C46">
+        <v>0.9594954449894885</v>
+      </c>
+      <c r="D46">
+        <v>0.9493982494529539</v>
+      </c>
+      <c r="E46">
         <v>0.910932533157181</v>
       </c>
-      <c r="C46">
-        <v>0.9493982494529539</v>
-      </c>
-      <c r="D46">
-        <v>0.9594954449894885</v>
-      </c>
-      <c r="E46">
-        <v>0.9282967919931907</v>
-      </c>
       <c r="F46">
-        <v>0.9392276712480071</v>
+        <v>0.9348338385484001</v>
       </c>
       <c r="G46">
         <v>0.9759262836671583</v>
@@ -2152,19 +2152,19 @@
         <v>44267</v>
       </c>
       <c r="B47">
+        <v>0.927386927298876</v>
+      </c>
+      <c r="C47">
+        <v>0.9608502686288252</v>
+      </c>
+      <c r="D47">
+        <v>0.9350838803792852</v>
+      </c>
+      <c r="E47">
         <v>0.9275902751170354</v>
       </c>
-      <c r="C47">
-        <v>0.9350838803792852</v>
-      </c>
-      <c r="D47">
-        <v>0.9608502686288252</v>
-      </c>
-      <c r="E47">
-        <v>0.927386927298876</v>
-      </c>
       <c r="F47">
-        <v>0.9397728810905159</v>
+        <v>0.9356827946214951</v>
       </c>
       <c r="G47">
         <v>0.9772691220977807</v>
@@ -2178,19 +2178,19 @@
         <v>44270</v>
       </c>
       <c r="B48">
+        <v>0.8954242611018169</v>
+      </c>
+      <c r="C48">
+        <v>0.9161878065872461</v>
+      </c>
+      <c r="D48">
+        <v>0.8967906637490883</v>
+      </c>
+      <c r="E48">
         <v>0.8912915540710569</v>
       </c>
-      <c r="C48">
-        <v>0.8967906637490883</v>
-      </c>
-      <c r="D48">
-        <v>0.9161878065872461</v>
-      </c>
-      <c r="E48">
-        <v>0.8954242611018169</v>
-      </c>
       <c r="F48">
-        <v>0.9018059593668155</v>
+        <v>0.8980411833877887</v>
       </c>
       <c r="G48">
         <v>0.9696502808966706</v>
@@ -2204,19 +2204,19 @@
         <v>44271</v>
       </c>
       <c r="B49">
+        <v>0.9092189838865898</v>
+      </c>
+      <c r="C49">
+        <v>0.9215603830880635</v>
+      </c>
+      <c r="D49">
+        <v>0.8914113785557987</v>
+      </c>
+      <c r="E49">
         <v>0.897361752707333</v>
       </c>
-      <c r="C49">
-        <v>0.8914113785557987</v>
-      </c>
-      <c r="D49">
-        <v>0.9215603830880635</v>
-      </c>
-      <c r="E49">
-        <v>0.9092189838865898</v>
-      </c>
       <c r="F49">
-        <v>0.908248623416368</v>
+        <v>0.9015276257025246</v>
       </c>
       <c r="G49">
         <v>0.9730065916875945</v>
@@ -2230,19 +2230,19 @@
         <v>44272</v>
       </c>
       <c r="B50">
+        <v>0.9246279827419214</v>
+      </c>
+      <c r="C50">
+        <v>0.9348283111422565</v>
+      </c>
+      <c r="D50">
+        <v>0.9170313639679066</v>
+      </c>
+      <c r="E50">
         <v>0.9007209027629924</v>
       </c>
-      <c r="C50">
-        <v>0.9170313639679066</v>
-      </c>
-      <c r="D50">
-        <v>0.9348283111422565</v>
-      </c>
-      <c r="E50">
-        <v>0.9246279827419214</v>
-      </c>
       <c r="F50">
-        <v>0.9226384623260315</v>
+        <v>0.915965817981507</v>
       </c>
       <c r="G50">
         <v>0.9777371523344186</v>
@@ -2256,19 +2256,19 @@
         <v>44273</v>
       </c>
       <c r="B51">
+        <v>0.9405652901294357</v>
+      </c>
+      <c r="C51">
+        <v>0.9483298294790937</v>
+      </c>
+      <c r="D51">
+        <v>0.9179431072210065</v>
+      </c>
+      <c r="E51">
         <v>0.9157457104830364</v>
       </c>
-      <c r="C51">
-        <v>0.9179431072210065</v>
-      </c>
-      <c r="D51">
-        <v>0.9483298294790937</v>
-      </c>
-      <c r="E51">
-        <v>0.9405652901294357</v>
-      </c>
       <c r="F51">
-        <v>0.935062488480502</v>
+        <v>0.9262294801757842</v>
       </c>
       <c r="G51">
         <v>0.9853544229642648</v>
@@ -2282,19 +2282,19 @@
         <v>44274</v>
       </c>
       <c r="B52">
+        <v>0.9163804995450676</v>
+      </c>
+      <c r="C52">
+        <v>0.9190843260920346</v>
+      </c>
+      <c r="D52">
+        <v>0.9106491611962072</v>
+      </c>
+      <c r="E52">
         <v>0.89222859199089</v>
       </c>
-      <c r="C52">
-        <v>0.9106491611962072</v>
-      </c>
-      <c r="D52">
-        <v>0.9190843260920346</v>
-      </c>
-      <c r="E52">
-        <v>0.9163804995450676</v>
-      </c>
       <c r="F52">
-        <v>0.9121926105020504</v>
+        <v>0.9069786789100496</v>
       </c>
       <c r="G52">
         <v>0.9747907606433689</v>
@@ -2308,19 +2308,19 @@
         <v>44277</v>
       </c>
       <c r="B53">
+        <v>0.9197851545302457</v>
+      </c>
+      <c r="C53">
+        <v>0.9224947442186405</v>
+      </c>
+      <c r="D53">
+        <v>0.9125638220277169</v>
+      </c>
+      <c r="E53">
         <v>0.9128444958409477</v>
       </c>
-      <c r="C53">
-        <v>0.9125638220277169</v>
-      </c>
-      <c r="D53">
-        <v>0.9224947442186405</v>
-      </c>
-      <c r="E53">
-        <v>0.9197851545302457</v>
-      </c>
       <c r="F53">
-        <v>0.9182717806248055</v>
+        <v>0.91557232768397</v>
       </c>
       <c r="G53">
         <v>0.9903535512972134</v>
@@ -2334,19 +2334,19 @@
         <v>44278</v>
       </c>
       <c r="B54">
+        <v>0.9179947756156263</v>
+      </c>
+      <c r="C54">
+        <v>0.9116561551039477</v>
+      </c>
+      <c r="D54">
+        <v>0.9124726477024069</v>
+      </c>
+      <c r="E54">
         <v>0.8981579393880301</v>
       </c>
-      <c r="C54">
-        <v>0.9124726477024069</v>
-      </c>
-      <c r="D54">
-        <v>0.9116561551039477</v>
-      </c>
-      <c r="E54">
-        <v>0.9179947756156263</v>
-      </c>
       <c r="F54">
-        <v>0.9115920069428338</v>
+        <v>0.9085487519621718</v>
       </c>
       <c r="G54">
         <v>0.9767649687220733</v>
@@ -2360,19 +2360,19 @@
         <v>44279</v>
       </c>
       <c r="B55">
+        <v>0.9127410407678084</v>
+      </c>
+      <c r="C55">
+        <v>0.8948843728100911</v>
+      </c>
+      <c r="D55">
+        <v>0.8925966447848286</v>
+      </c>
+      <c r="E55">
         <v>0.8783354355934346</v>
       </c>
-      <c r="C55">
-        <v>0.8925966447848286</v>
-      </c>
-      <c r="D55">
-        <v>0.8948843728100911</v>
-      </c>
-      <c r="E55">
-        <v>0.9127410407678084</v>
-      </c>
       <c r="F55">
-        <v>0.8975748401450117</v>
+        <v>0.8917039068330699</v>
       </c>
       <c r="G55">
         <v>0.9647296811269164</v>
@@ -2386,19 +2386,19 @@
         <v>44280</v>
       </c>
       <c r="B56">
+        <v>0.9112441665932904</v>
+      </c>
+      <c r="C56">
+        <v>0.9046951646811494</v>
+      </c>
+      <c r="D56">
+        <v>0.9000729394602479</v>
+      </c>
+      <c r="E56">
         <v>0.8763398741526266</v>
       </c>
-      <c r="C56">
-        <v>0.9000729394602479</v>
-      </c>
-      <c r="D56">
-        <v>0.9046951646811494</v>
-      </c>
-      <c r="E56">
-        <v>0.9112441665932904</v>
-      </c>
       <c r="F56">
-        <v>0.9012501576347538</v>
+        <v>0.8949259148089035</v>
       </c>
       <c r="G56">
         <v>0.9670651205963146</v>
@@ -2412,19 +2412,19 @@
         <v>44281</v>
       </c>
       <c r="B57">
+        <v>0.930615479439993</v>
+      </c>
+      <c r="C57">
+        <v>0.9390796542863817</v>
+      </c>
+      <c r="D57">
+        <v>0.9171225382932167</v>
+      </c>
+      <c r="E57">
         <v>0.9085377806145685</v>
       </c>
-      <c r="C57">
-        <v>0.9171225382932167</v>
-      </c>
-      <c r="D57">
-        <v>0.9390796542863817</v>
-      </c>
-      <c r="E57">
-        <v>0.930615479439993</v>
-      </c>
       <c r="F57">
-        <v>0.9273616483440272</v>
+        <v>0.9203160779730528</v>
       </c>
       <c r="G57">
         <v>0.9818881721848689</v>
@@ -2438,19 +2438,19 @@
         <v>44284</v>
       </c>
       <c r="B58">
+        <v>0.9376889436764404</v>
+      </c>
+      <c r="C58">
+        <v>0.938051857042747</v>
+      </c>
+      <c r="D58">
+        <v>0.9214077315827862</v>
+      </c>
+      <c r="E58">
         <v>0.9004560889225061</v>
       </c>
-      <c r="C58">
-        <v>0.9214077315827862</v>
-      </c>
-      <c r="D58">
-        <v>0.938051857042747</v>
-      </c>
-      <c r="E58">
-        <v>0.9376889436764404</v>
-      </c>
       <c r="F58">
-        <v>0.9287113137232316</v>
+        <v>0.9200909968890083</v>
       </c>
       <c r="G58">
         <v>0.9823829021329928</v>
@@ -2464,19 +2464,19 @@
         <v>44285</v>
       </c>
       <c r="B59">
+        <v>0.9466408382495377</v>
+      </c>
+      <c r="C59">
+        <v>0.955944872693296</v>
+      </c>
+      <c r="D59">
+        <v>0.9232312180889861</v>
+      </c>
+      <c r="E59">
         <v>0.9285429913222801</v>
       </c>
-      <c r="C59">
-        <v>0.9232312180889861</v>
-      </c>
-      <c r="D59">
-        <v>0.955944872693296</v>
-      </c>
-      <c r="E59">
-        <v>0.9466408382495377</v>
-      </c>
       <c r="F59">
-        <v>0.9426549002110505</v>
+        <v>0.9345250599659995</v>
       </c>
       <c r="G59">
         <v>0.9863752942857905</v>
@@ -2490,19 +2490,19 @@
         <v>44286</v>
       </c>
       <c r="B60">
+        <v>0.9374541398843592</v>
+      </c>
+      <c r="C60">
+        <v>0.9463209530483532</v>
+      </c>
+      <c r="D60">
+        <v>0.9211342086068562</v>
+      </c>
+      <c r="E60">
         <v>0.9224742563679453</v>
       </c>
-      <c r="C60">
-        <v>0.9211342086068562</v>
-      </c>
-      <c r="D60">
-        <v>0.9463209530483532</v>
-      </c>
-      <c r="E60">
-        <v>0.9374541398843592</v>
-      </c>
       <c r="F60">
-        <v>0.9350592197135115</v>
+        <v>0.9286325592402457</v>
       </c>
       <c r="G60">
         <v>0.9822462624330348</v>
@@ -2516,19 +2516,19 @@
         <v>44287</v>
       </c>
       <c r="B61">
+        <v>0.9519532740453759</v>
+      </c>
+      <c r="C61">
+        <v>0.9650081756598926</v>
+      </c>
+      <c r="D61">
+        <v>0.9566921954777534</v>
+      </c>
+      <c r="E61">
         <v>0.9312822720757296</v>
       </c>
-      <c r="C61">
-        <v>0.9566921954777534</v>
-      </c>
-      <c r="D61">
-        <v>0.9650081756598926</v>
-      </c>
-      <c r="E61">
-        <v>0.9519532740453759</v>
-      </c>
       <c r="F61">
-        <v>0.9535529378868308</v>
+        <v>0.9489150207425451</v>
       </c>
       <c r="G61">
         <v>0.9912911823417532</v>
@@ -2542,19 +2542,19 @@
         <v>44288</v>
       </c>
       <c r="B62">
+        <v>0.9774294854861907</v>
+      </c>
+      <c r="C62">
+        <v>0.9755197383788834</v>
+      </c>
+      <c r="D62">
+        <v>1.0036469730124</v>
+      </c>
+      <c r="E62">
         <v>0.9289564814707436</v>
       </c>
-      <c r="C62">
-        <v>1.0036469730124</v>
-      </c>
-      <c r="D62">
-        <v>0.9755197383788834</v>
-      </c>
-      <c r="E62">
-        <v>0.9774294854861907</v>
-      </c>
       <c r="F62">
-        <v>0.9730158311376089</v>
+        <v>0.9697605080364999</v>
       </c>
       <c r="G62">
         <v>0.9936391863812625</v>
@@ -2568,19 +2568,19 @@
         <v>44292</v>
       </c>
       <c r="B63">
+        <v>0.969358105133398</v>
+      </c>
+      <c r="C63">
+        <v>0.9709413688390564</v>
+      </c>
+      <c r="D63">
+        <v>0.9978118161925602</v>
+      </c>
+      <c r="E63">
         <v>0.9500423679626594</v>
       </c>
-      <c r="C63">
-        <v>0.9978118161925602</v>
-      </c>
-      <c r="D63">
-        <v>0.9709413688390564</v>
-      </c>
-      <c r="E63">
-        <v>0.969358105133398</v>
-      </c>
       <c r="F63">
-        <v>0.9714340377172974</v>
+        <v>0.9726427913465397</v>
       </c>
       <c r="G63">
         <v>0.9962290583954103</v>
@@ -2594,19 +2594,19 @@
         <v>44293</v>
       </c>
       <c r="B64">
+        <v>0.9474920019958324</v>
+      </c>
+      <c r="C64">
+        <v>0.9637935061901426</v>
+      </c>
+      <c r="D64">
+        <v>0.9975382932166302</v>
+      </c>
+      <c r="E64">
         <v>0.9331814838379677</v>
       </c>
-      <c r="C64">
-        <v>0.9975382932166302</v>
-      </c>
-      <c r="D64">
-        <v>0.9637935061901426</v>
-      </c>
-      <c r="E64">
-        <v>0.9474920019958324</v>
-      </c>
       <c r="F64">
-        <v>0.9589465798006535</v>
+        <v>0.9620560628196332</v>
       </c>
       <c r="G64">
         <v>0.9970112028848254</v>
@@ -2620,19 +2620,19 @@
         <v>44294</v>
       </c>
       <c r="B65">
+        <v>0.9584984297496405</v>
+      </c>
+      <c r="C65">
+        <v>0.9703807521607103</v>
+      </c>
+      <c r="D65">
+        <v>0.9950765864332604</v>
+      </c>
+      <c r="E65">
         <v>0.924964936373183</v>
       </c>
-      <c r="C65">
-        <v>0.9950765864332604</v>
-      </c>
-      <c r="D65">
-        <v>0.9703807521607103</v>
-      </c>
-      <c r="E65">
-        <v>0.9584984297496405</v>
-      </c>
       <c r="F65">
-        <v>0.9629371889075111</v>
+        <v>0.961523163450886</v>
       </c>
       <c r="G65">
         <v>0.9983728881706143</v>
@@ -2646,19 +2646,19 @@
         <v>44295</v>
       </c>
       <c r="B66">
+        <v>0.9408000939215169</v>
+      </c>
+      <c r="C66">
+        <v>0.951646811492642</v>
+      </c>
+      <c r="D66">
+        <v>0.9869620714806711</v>
+      </c>
+      <c r="E66">
         <v>0.9092496929927127</v>
       </c>
-      <c r="C66">
-        <v>0.9869620714806711</v>
-      </c>
-      <c r="D66">
-        <v>0.951646811492642</v>
-      </c>
-      <c r="E66">
-        <v>0.9408000939215169</v>
-      </c>
       <c r="F66">
-        <v>0.9468634787471477</v>
+        <v>0.9474658561966237</v>
       </c>
       <c r="G66">
         <v>0.9949945893819959</v>
@@ -2672,19 +2672,19 @@
         <v>44298</v>
       </c>
       <c r="B67">
+        <v>0.9315840450823281</v>
+      </c>
+      <c r="C67">
+        <v>0.9266059331931793</v>
+      </c>
+      <c r="D67">
+        <v>0.9705506929248724</v>
+      </c>
+      <c r="E67">
         <v>0.8843249628365525</v>
       </c>
-      <c r="C67">
-        <v>0.9705506929248724</v>
-      </c>
-      <c r="D67">
-        <v>0.9266059331931793</v>
-      </c>
-      <c r="E67">
-        <v>0.9315840450823281</v>
-      </c>
       <c r="F67">
-        <v>0.9285315543103597</v>
+        <v>0.9280012627081065</v>
       </c>
       <c r="G67">
         <v>0.9779036328883906</v>
@@ -2698,19 +2698,19 @@
         <v>44299</v>
       </c>
       <c r="B68">
+        <v>0.939684775909131</v>
+      </c>
+      <c r="C68">
+        <v>0.9338939500116796</v>
+      </c>
+      <c r="D68">
+        <v>0.9644420131291029</v>
+      </c>
+      <c r="E68">
         <v>0.8787236772284079</v>
       </c>
-      <c r="C68">
-        <v>0.9644420131291029</v>
-      </c>
-      <c r="D68">
-        <v>0.9338939500116796</v>
-      </c>
-      <c r="E68">
-        <v>0.939684775909131</v>
-      </c>
       <c r="F68">
-        <v>0.9316191469146444</v>
+        <v>0.9267530612245165</v>
       </c>
       <c r="G68">
         <v>0.9752902023052845</v>
@@ -2724,19 +2724,19 @@
         <v>44300</v>
       </c>
       <c r="B69">
+        <v>0.9444982536467964</v>
+      </c>
+      <c r="C69">
+        <v>0.9465545433309975</v>
+      </c>
+      <c r="D69">
+        <v>0.9681801604668127</v>
+      </c>
+      <c r="E69">
         <v>0.891903035349833</v>
       </c>
-      <c r="C69">
-        <v>0.9681801604668127</v>
-      </c>
-      <c r="D69">
-        <v>0.9465545433309975</v>
-      </c>
-      <c r="E69">
-        <v>0.9444982536467964</v>
-      </c>
       <c r="F69">
-        <v>0.9402615662915018</v>
+        <v>0.9353064301057181</v>
       </c>
       <c r="G69">
         <v>0.9858805643376666</v>
@@ -2750,19 +2750,19 @@
         <v>44301</v>
       </c>
       <c r="B70">
+        <v>0.9376889436764404</v>
+      </c>
+      <c r="C70">
+        <v>0.9444055127306705</v>
+      </c>
+      <c r="D70">
+        <v>0.9624361779722831</v>
+      </c>
+      <c r="E70">
         <v>0.8973868604821752</v>
       </c>
-      <c r="C70">
-        <v>0.9624361779722831</v>
-      </c>
-      <c r="D70">
-        <v>0.9444055127306705</v>
-      </c>
-      <c r="E70">
-        <v>0.9376889436764404</v>
-      </c>
       <c r="F70">
-        <v>0.9372610871516046</v>
+        <v>0.9336976602791801</v>
       </c>
       <c r="G70">
         <v>0.9857627714928752</v>
@@ -2776,19 +2776,19 @@
         <v>44302</v>
       </c>
       <c r="B71">
+        <v>0.9434709870564411</v>
+      </c>
+      <c r="C71">
+        <v>0.9394066806820838</v>
+      </c>
+      <c r="D71">
+        <v>0.9574215900802334</v>
+      </c>
+      <c r="E71">
         <v>0.8934466568434843</v>
       </c>
-      <c r="C71">
-        <v>0.9574215900802334</v>
-      </c>
-      <c r="D71">
-        <v>0.9394066806820838</v>
-      </c>
-      <c r="E71">
-        <v>0.9434709870564411</v>
-      </c>
       <c r="F71">
-        <v>0.9359972323307453</v>
+        <v>0.9308757250003761</v>
       </c>
       <c r="G71">
         <v>0.9956777878817863</v>
@@ -2802,19 +2802,19 @@
         <v>44305</v>
       </c>
       <c r="B72">
+        <v>0.9591734906518741</v>
+      </c>
+      <c r="C72">
+        <v>0.9769679981312779</v>
+      </c>
+      <c r="D72">
+        <v>0.9801239970824216</v>
+      </c>
+      <c r="E72">
         <v>0.9234306599257733</v>
       </c>
-      <c r="C72">
-        <v>0.9801239970824216</v>
-      </c>
-      <c r="D72">
-        <v>0.9769679981312779</v>
-      </c>
-      <c r="E72">
-        <v>0.9591734906518741</v>
-      </c>
       <c r="F72">
-        <v>0.9625309829898333</v>
+        <v>0.9573170899058402</v>
       </c>
       <c r="G72">
         <v>1.009132871899496</v>
@@ -2828,19 +2828,19 @@
         <v>44306</v>
       </c>
       <c r="B73">
+        <v>0.9685362918611137</v>
+      </c>
+      <c r="C73">
+        <v>0.9799112356925953</v>
+      </c>
+      <c r="D73">
+        <v>0.9700948212983225</v>
+      </c>
+      <c r="E73">
         <v>0.9349364666335124</v>
       </c>
-      <c r="C73">
-        <v>0.9700948212983225</v>
-      </c>
-      <c r="D73">
-        <v>0.9799112356925953</v>
-      </c>
-      <c r="E73">
-        <v>0.9685362918611137</v>
-      </c>
       <c r="F73">
-        <v>0.9668430030411359</v>
+        <v>0.9598964047016361</v>
       </c>
       <c r="G73">
         <v>1.009648019274051</v>
@@ -2854,19 +2854,19 @@
         <v>44307</v>
       </c>
       <c r="B74">
+        <v>0.9749933961433477</v>
+      </c>
+      <c r="C74">
+        <v>0.9855174024760571</v>
+      </c>
+      <c r="D74">
+        <v>0.9735594456601022</v>
+      </c>
+      <c r="E74">
         <v>0.933751897579194</v>
       </c>
-      <c r="C74">
-        <v>0.9735594456601022</v>
-      </c>
-      <c r="D74">
-        <v>0.9855174024760571</v>
-      </c>
-      <c r="E74">
-        <v>0.9749933961433477</v>
-      </c>
       <c r="F74">
-        <v>0.9712114918950839</v>
+        <v>0.9626995790342665</v>
       </c>
       <c r="G74">
         <v>1.008347586267553</v>
@@ -2880,19 +2880,19 @@
         <v>44308</v>
       </c>
       <c r="B75">
+        <v>0.97349652196883</v>
+      </c>
+      <c r="C75">
+        <v>0.9900490539593555</v>
+      </c>
+      <c r="D75">
+        <v>0.9834062727935813</v>
+      </c>
+      <c r="E75">
         <v>0.9361801740678118</v>
       </c>
-      <c r="C75">
-        <v>0.9834062727935813</v>
-      </c>
-      <c r="D75">
-        <v>0.9900490539593555</v>
-      </c>
-      <c r="E75">
-        <v>0.97349652196883</v>
-      </c>
       <c r="F75">
-        <v>0.9742997360227381</v>
+        <v>0.9672662753720513</v>
       </c>
       <c r="G75">
         <v>1.012306996423809</v>
@@ -2906,19 +2906,19 @@
         <v>44309</v>
       </c>
       <c r="B76">
+        <v>0.9871151419095419</v>
+      </c>
+      <c r="C76">
+        <v>1.009483765475356</v>
+      </c>
+      <c r="D76">
+        <v>0.987235594456601</v>
+      </c>
+      <c r="E76">
         <v>0.9450422615642414</v>
       </c>
-      <c r="C76">
-        <v>0.987235594456601</v>
-      </c>
-      <c r="D76">
-        <v>1.009483765475356</v>
-      </c>
-      <c r="E76">
-        <v>0.9871151419095419</v>
-      </c>
       <c r="F76">
-        <v>0.9873648749605597</v>
+        <v>0.9770735067423109</v>
       </c>
       <c r="G76">
         <v>1.015022514139068</v>
@@ -2932,19 +2932,19 @@
         <v>44312</v>
       </c>
       <c r="B77">
+        <v>0.968418889965073</v>
+      </c>
+      <c r="C77">
+        <v>0.9999065638869423</v>
+      </c>
+      <c r="D77">
+        <v>0.9897884755652807</v>
+      </c>
+      <c r="E77">
         <v>0.9400441536546279</v>
       </c>
-      <c r="C77">
-        <v>0.9897884755652807</v>
-      </c>
-      <c r="D77">
-        <v>0.9999065638869423</v>
-      </c>
-      <c r="E77">
-        <v>0.968418889965073</v>
-      </c>
       <c r="F77">
-        <v>0.9776189467385495</v>
+        <v>0.9714600947974125</v>
       </c>
       <c r="G77">
         <v>1.011864095327393</v>
@@ -2958,19 +2958,19 @@
         <v>44313</v>
       </c>
       <c r="B78">
+        <v>0.9759326113116727</v>
+      </c>
+      <c r="C78">
+        <v>1.006867554309741</v>
+      </c>
+      <c r="D78">
+        <v>0.9785740335521517</v>
+      </c>
+      <c r="E78">
         <v>0.937905123235827</v>
       </c>
-      <c r="C78">
-        <v>0.9785740335521517</v>
-      </c>
-      <c r="D78">
-        <v>1.006867554309741</v>
-      </c>
-      <c r="E78">
-        <v>0.9759326113116727</v>
-      </c>
       <c r="F78">
-        <v>0.9801255113090228</v>
+        <v>0.9695141498956733</v>
       </c>
       <c r="G78">
         <v>1.012434212696184</v>
@@ -2984,19 +2984,19 @@
         <v>44314</v>
       </c>
       <c r="B79">
+        <v>0.9839746411904553</v>
+      </c>
+      <c r="C79">
+        <v>1.024854006073348</v>
+      </c>
+      <c r="D79">
+        <v>0.9976294675419403</v>
+      </c>
+      <c r="E79">
         <v>0.9534557023978826</v>
       </c>
-      <c r="C79">
-        <v>0.9976294675419403</v>
-      </c>
-      <c r="D79">
-        <v>1.024854006073348</v>
-      </c>
-      <c r="E79">
-        <v>0.9839746411904553</v>
-      </c>
       <c r="F79">
-        <v>0.9945979324868248</v>
+        <v>0.9853589761149881</v>
       </c>
       <c r="G79">
         <v>1.019259915409032</v>
@@ -3010,19 +3010,19 @@
         <v>44315</v>
       </c>
       <c r="B80">
+        <v>0.9995010419418274</v>
+      </c>
+      <c r="C80">
+        <v>1.023826208829713</v>
+      </c>
+      <c r="D80">
+        <v>1.00483223924143</v>
+      </c>
+      <c r="E80">
         <v>0.9500112084259441</v>
       </c>
-      <c r="C80">
-        <v>1.00483223924143</v>
-      </c>
-      <c r="D80">
-        <v>1.023826208829713</v>
-      </c>
-      <c r="E80">
-        <v>0.9995010419418274</v>
-      </c>
       <c r="F80">
-        <v>1.000021378858062</v>
+        <v>0.9890639703613953</v>
       </c>
       <c r="G80">
         <v>1.019603870515823</v>
@@ -3036,19 +3036,19 @@
         <v>44316</v>
       </c>
       <c r="B81">
+        <v>0.992251474861319</v>
+      </c>
+      <c r="C81">
+        <v>1.03003971034805</v>
+      </c>
+      <c r="D81">
+        <v>1.009938001458789</v>
+      </c>
+      <c r="E81">
         <v>0.9729243892308588</v>
       </c>
-      <c r="C81">
-        <v>1.009938001458789</v>
-      </c>
-      <c r="D81">
-        <v>1.03003971034805</v>
-      </c>
-      <c r="E81">
-        <v>0.992251474861319</v>
-      </c>
       <c r="F81">
-        <v>1.004442697536332</v>
+        <v>0.9981340904131766</v>
       </c>
       <c r="G81">
         <v>1.018626975189686</v>
@@ -3062,19 +3062,19 @@
         <v>44322</v>
       </c>
       <c r="B82">
+        <v>0.9657186463561387</v>
+      </c>
+      <c r="C82">
+        <v>1.010838589114693</v>
+      </c>
+      <c r="D82">
+        <v>0.9967177242888402</v>
+      </c>
+      <c r="E82">
         <v>0.9686533653256675</v>
       </c>
-      <c r="C82">
-        <v>0.9967177242888402</v>
-      </c>
-      <c r="D82">
-        <v>1.010838589114693</v>
-      </c>
-      <c r="E82">
-        <v>0.9657186463561387</v>
-      </c>
       <c r="F82">
-        <v>0.9863769729398408</v>
+        <v>0.984587189602829</v>
       </c>
       <c r="G82">
         <v>1.01919866312974</v>
@@ -3088,19 +3088,19 @@
         <v>44323</v>
       </c>
       <c r="B83">
+        <v>0.953127293005782</v>
+      </c>
+      <c r="C83">
+        <v>0.9812193412754029</v>
+      </c>
+      <c r="D83">
+        <v>0.9526805251641137</v>
+      </c>
+      <c r="E83">
         <v>0.9428060651827108</v>
       </c>
-      <c r="C83">
-        <v>0.9526805251641137</v>
-      </c>
-      <c r="D83">
-        <v>0.9812193412754029</v>
-      </c>
-      <c r="E83">
-        <v>0.953127293005782</v>
-      </c>
       <c r="F83">
-        <v>0.9605671096717512</v>
+        <v>0.9543495026422536</v>
       </c>
       <c r="G83">
         <v>1.012145227583629</v>
@@ -3114,19 +3114,19 @@
         <v>44326</v>
       </c>
       <c r="B84">
+        <v>0.9364268732940038</v>
+      </c>
+      <c r="C84">
+        <v>0.982434010745153</v>
+      </c>
+      <c r="D84">
+        <v>0.9333515681983954</v>
+      </c>
+      <c r="E84">
         <v>0.952361065339775</v>
       </c>
-      <c r="C84">
-        <v>0.9333515681983954</v>
-      </c>
-      <c r="D84">
-        <v>0.982434010745153</v>
-      </c>
-      <c r="E84">
-        <v>0.9364268732940038</v>
-      </c>
       <c r="F84">
-        <v>0.9537952394344107</v>
+        <v>0.9484915193542529</v>
       </c>
       <c r="G84">
         <v>1.017100379921189</v>
@@ -3140,19 +3140,19 @@
         <v>44327</v>
       </c>
       <c r="B85">
+        <v>0.9588212849637522</v>
+      </c>
+      <c r="C85">
+        <v>0.9855174024760571</v>
+      </c>
+      <c r="D85">
+        <v>0.9413749088256747</v>
+      </c>
+      <c r="E85">
         <v>0.9436933097688046</v>
       </c>
-      <c r="C85">
-        <v>0.9413749088256747</v>
-      </c>
-      <c r="D85">
-        <v>0.9855174024760571</v>
-      </c>
-      <c r="E85">
-        <v>0.9588212849637522</v>
-      </c>
       <c r="F85">
-        <v>0.9620933640161986</v>
+        <v>0.9526100890009459</v>
       </c>
       <c r="G85">
         <v>1.013967090249737</v>
@@ -3166,19 +3166,19 @@
         <v>44328</v>
       </c>
       <c r="B86">
+        <v>0.9696516098734995</v>
+      </c>
+      <c r="C86">
+        <v>0.9924783928988555</v>
+      </c>
+      <c r="D86">
+        <v>0.9553245805981037</v>
+      </c>
+      <c r="E86">
         <v>0.9495191579640454</v>
       </c>
-      <c r="C86">
-        <v>0.9553245805981037</v>
-      </c>
-      <c r="D86">
-        <v>0.9924783928988555</v>
-      </c>
-      <c r="E86">
-        <v>0.9696516098734995</v>
-      </c>
       <c r="F86">
-        <v>0.9713263364704425</v>
+        <v>0.9621605341968096</v>
       </c>
       <c r="G86">
         <v>1.022763859898761</v>
@@ -3192,19 +3192,19 @@
         <v>44329</v>
       </c>
       <c r="B87">
+        <v>0.9675677262187785</v>
+      </c>
+      <c r="C87">
+        <v>0.9820602662929223</v>
+      </c>
+      <c r="D87">
+        <v>0.9482129832239242</v>
+      </c>
+      <c r="E87">
         <v>0.9310161634396796</v>
       </c>
-      <c r="C87">
-        <v>0.9482129832239242</v>
-      </c>
-      <c r="D87">
-        <v>0.9820602662929223</v>
-      </c>
-      <c r="E87">
-        <v>0.9675677262187785</v>
-      </c>
       <c r="F87">
-        <v>0.962846192461674</v>
+        <v>0.9515823771259784</v>
       </c>
       <c r="G87">
         <v>1.011295548529867</v>
@@ -3218,19 +3218,19 @@
         <v>44330</v>
       </c>
       <c r="B88">
+        <v>0.9831821783921811</v>
+      </c>
+      <c r="C88">
+        <v>1.006540527914039</v>
+      </c>
+      <c r="D88">
+        <v>0.9706418672501823</v>
+      </c>
+      <c r="E88">
         <v>0.9443479978125836</v>
       </c>
-      <c r="C88">
-        <v>0.9706418672501823</v>
-      </c>
-      <c r="D88">
-        <v>1.006540527914039</v>
-      </c>
-      <c r="E88">
-        <v>0.9831821783921811</v>
-      </c>
       <c r="F88">
-        <v>0.9821567701417229</v>
+        <v>0.9701995155427702</v>
       </c>
       <c r="G88">
         <v>1.024923395386604</v>
@@ -3244,19 +3244,19 @@
         <v>44333</v>
       </c>
       <c r="B89">
+        <v>1.003169851193097</v>
+      </c>
+      <c r="C89">
+        <v>1.035365568792338</v>
+      </c>
+      <c r="D89">
+        <v>0.9813092633114515</v>
+      </c>
+      <c r="E89">
         <v>0.9721459919152964</v>
       </c>
-      <c r="C89">
-        <v>0.9813092633114515</v>
-      </c>
-      <c r="D89">
-        <v>1.035365568792338</v>
-      </c>
-      <c r="E89">
-        <v>1.003169851193097</v>
-      </c>
       <c r="F89">
-        <v>1.004804081983741</v>
+        <v>0.9911912556223508</v>
       </c>
       <c r="G89">
         <v>1.033143765381782</v>
@@ -3270,19 +3270,19 @@
         <v>44334</v>
       </c>
       <c r="B90">
+        <v>1.001203369434416</v>
+      </c>
+      <c r="C90">
+        <v>1.031441252043915</v>
+      </c>
+      <c r="D90">
+        <v>0.9739241429613421</v>
+      </c>
+      <c r="E90">
         <v>0.9680804182887734</v>
       </c>
-      <c r="C90">
-        <v>0.9739241429613421</v>
-      </c>
-      <c r="D90">
-        <v>1.031441252043915</v>
-      </c>
-      <c r="E90">
-        <v>1.001203369434416</v>
-      </c>
       <c r="F90">
-        <v>1.000913500500369</v>
+        <v>0.9864110908638546</v>
       </c>
       <c r="G90">
         <v>1.036514211314081</v>
@@ -3296,19 +3296,19 @@
         <v>44335</v>
       </c>
       <c r="B91">
+        <v>0.9963018402747205</v>
+      </c>
+      <c r="C91">
+        <v>1.03653352020556</v>
+      </c>
+      <c r="D91">
+        <v>0.9877826404084609</v>
+      </c>
+      <c r="E91">
         <v>0.9840320744505197</v>
       </c>
-      <c r="C91">
-        <v>0.9877826404084609</v>
-      </c>
-      <c r="D91">
-        <v>1.03653352020556</v>
-      </c>
-      <c r="E91">
-        <v>0.9963018402747205</v>
-      </c>
       <c r="F91">
-        <v>1.006044170484519</v>
+        <v>0.9962808671851112</v>
       </c>
       <c r="G91">
         <v>1.034125372421711</v>
@@ -3322,19 +3322,19 @@
         <v>44336</v>
       </c>
       <c r="B92">
+        <v>1.007044113762437</v>
+      </c>
+      <c r="C92">
+        <v>1.040738145293156</v>
+      </c>
+      <c r="D92">
+        <v>0.9862326768781912</v>
+      </c>
+      <c r="E92">
         <v>0.9736231566192596</v>
       </c>
-      <c r="C92">
-        <v>0.9862326768781912</v>
-      </c>
-      <c r="D92">
-        <v>1.040738145293156</v>
-      </c>
-      <c r="E92">
-        <v>1.007044113762437</v>
-      </c>
       <c r="F92">
-        <v>1.008943637182913</v>
+        <v>0.9948754090936096</v>
       </c>
       <c r="G92">
         <v>1.028521574152166</v>
@@ -3348,19 +3348,19 @@
         <v>44337</v>
       </c>
       <c r="B93">
+        <v>0.9989433829356346</v>
+      </c>
+      <c r="C93">
+        <v>1.031067507591684</v>
+      </c>
+      <c r="D93">
+        <v>0.9772064186725019</v>
+      </c>
+      <c r="E93">
         <v>0.9772662891192925</v>
       </c>
-      <c r="C93">
-        <v>0.9772064186725019</v>
-      </c>
-      <c r="D93">
-        <v>1.031067507591684</v>
-      </c>
-      <c r="E93">
-        <v>0.9989433829356346</v>
-      </c>
       <c r="F93">
-        <v>1.00216395419862</v>
+        <v>0.9900778449609364</v>
       </c>
       <c r="G93">
         <v>1.025246933066964</v>
@@ -3374,19 +3374,19 @@
         <v>44340</v>
       </c>
       <c r="B94">
+        <v>1.006339702386194</v>
+      </c>
+      <c r="C94">
+        <v>1.037794907731838</v>
+      </c>
+      <c r="D94">
+        <v>0.9857768052516411</v>
+      </c>
+      <c r="E94">
         <v>0.9756034056951414</v>
       </c>
-      <c r="C94">
-        <v>0.9857768052516411</v>
-      </c>
-      <c r="D94">
-        <v>1.037794907731838</v>
-      </c>
-      <c r="E94">
-        <v>1.006339702386194</v>
-      </c>
       <c r="F94">
-        <v>1.007999057199904</v>
+        <v>0.9947583533325037</v>
       </c>
       <c r="G94">
         <v>1.027800681942043</v>
@@ -3400,19 +3400,19 @@
         <v>44341</v>
       </c>
       <c r="B95">
+        <v>1.037363153414928</v>
+      </c>
+      <c r="C95">
+        <v>1.065919177762205</v>
+      </c>
+      <c r="D95">
+        <v>1.016411378555799</v>
+      </c>
+      <c r="E95">
         <v>0.9845166094686035</v>
       </c>
-      <c r="C95">
-        <v>1.016411378555799</v>
-      </c>
-      <c r="D95">
-        <v>1.065919177762205</v>
-      </c>
-      <c r="E95">
-        <v>1.037363153414928</v>
-      </c>
       <c r="F95">
-        <v>1.034240927252602</v>
+        <v>1.017864232348165</v>
       </c>
       <c r="G95">
         <v>1.0396663478407</v>
@@ -3426,19 +3426,19 @@
         <v>44342</v>
       </c>
       <c r="B96">
+        <v>1.032314871885181</v>
+      </c>
+      <c r="C96">
+        <v>1.057977108152301</v>
+      </c>
+      <c r="D96">
+        <v>1.00492341356674</v>
+      </c>
+      <c r="E96">
         <v>0.9717996341020328</v>
       </c>
-      <c r="C96">
-        <v>1.00492341356674</v>
-      </c>
-      <c r="D96">
-        <v>1.057977108152301</v>
-      </c>
-      <c r="E96">
-        <v>1.032314871885181</v>
-      </c>
       <c r="F96">
-        <v>1.02583927151606</v>
+        <v>1.007668242337067</v>
       </c>
       <c r="G96">
         <v>1.041007615700059</v>
@@ -3452,19 +3452,19 @@
         <v>44343</v>
       </c>
       <c r="B97">
+        <v>1.033518241319597</v>
+      </c>
+      <c r="C97">
+        <v>1.065872459705676</v>
+      </c>
+      <c r="D97">
+        <v>1.045404814004376</v>
+      </c>
+      <c r="E97">
         <v>0.9828638873748538</v>
       </c>
-      <c r="C97">
-        <v>1.045404814004376</v>
-      </c>
-      <c r="D97">
-        <v>1.065872459705676</v>
-      </c>
-      <c r="E97">
-        <v>1.033518241319597</v>
-      </c>
       <c r="F97">
-        <v>1.037604610572809</v>
+        <v>1.026225090629442</v>
       </c>
       <c r="G97">
         <v>1.049991283329486</v>
@@ -3478,19 +3478,19 @@
         <v>44344</v>
       </c>
       <c r="B98">
+        <v>1.026855683719292</v>
+      </c>
+      <c r="C98">
+        <v>1.061901424900724</v>
+      </c>
+      <c r="D98">
+        <v>1.035740335521517</v>
+      </c>
+      <c r="E98">
         <v>0.9931219896706839</v>
       </c>
-      <c r="C98">
-        <v>1.035740335521517</v>
-      </c>
-      <c r="D98">
-        <v>1.061901424900724</v>
-      </c>
-      <c r="E98">
-        <v>1.026855683719292</v>
-      </c>
       <c r="F98">
-        <v>1.03419644112728</v>
+        <v>1.024613275778829</v>
       </c>
       <c r="G98">
         <v>1.047283618470546</v>
@@ -3504,19 +3504,19 @@
         <v>44347</v>
       </c>
       <c r="B99">
+        <v>1.027530744621526</v>
+      </c>
+      <c r="C99">
+        <v>1.085400607334735</v>
+      </c>
+      <c r="D99">
+        <v>1.060083880379285</v>
+      </c>
+      <c r="E99">
         <v>1.033262650631168</v>
       </c>
-      <c r="C99">
-        <v>1.060083880379285</v>
-      </c>
-      <c r="D99">
-        <v>1.085400607334735</v>
-      </c>
-      <c r="E99">
-        <v>1.027530744621526</v>
-      </c>
       <c r="F99">
-        <v>1.053136256417343</v>
+        <v>1.050002685066014</v>
       </c>
       <c r="G99">
         <v>1.0568358328975</v>
@@ -3530,19 +3530,19 @@
         <v>44348</v>
       </c>
       <c r="B100">
+        <v>1.03401719937777</v>
+      </c>
+      <c r="C100">
+        <v>1.089838822704976</v>
+      </c>
+      <c r="D100">
+        <v>1.071298322392414</v>
+      </c>
+      <c r="E100">
         <v>1.027332289915761</v>
       </c>
-      <c r="C100">
-        <v>1.071298322392414</v>
-      </c>
-      <c r="D100">
-        <v>1.089838822704976</v>
-      </c>
-      <c r="E100">
-        <v>1.03401719937777</v>
-      </c>
       <c r="F100">
-        <v>1.057639691379696</v>
+        <v>1.053603625815765</v>
       </c>
       <c r="G100">
         <v>1.058527338148705</v>
@@ -3556,19 +3556,19 @@
         <v>44349</v>
       </c>
       <c r="B101">
+        <v>1.025564262862845</v>
+      </c>
+      <c r="C101">
+        <v>1.075309507124504</v>
+      </c>
+      <c r="D101">
+        <v>1.059263311451495</v>
+      </c>
+      <c r="E101">
         <v>1.01089218620151</v>
       </c>
-      <c r="C101">
-        <v>1.059263311451495</v>
-      </c>
-      <c r="D101">
-        <v>1.075309507124504</v>
-      </c>
-      <c r="E101">
-        <v>1.025564262862845</v>
-      </c>
       <c r="F101">
-        <v>1.045214778696836</v>
+        <v>1.040299855123341</v>
       </c>
       <c r="G101">
         <v>1.049366195966459</v>
@@ -3582,19 +3582,19 @@
         <v>44350</v>
       </c>
       <c r="B102">
+        <v>1.027560095095536</v>
+      </c>
+      <c r="C102">
+        <v>1.060546601261388</v>
+      </c>
+      <c r="D102">
+        <v>1.044037199124727</v>
+      </c>
+      <c r="E102">
         <v>0.9806695466673031</v>
       </c>
-      <c r="C102">
-        <v>1.044037199124727</v>
-      </c>
-      <c r="D102">
-        <v>1.060546601261388</v>
-      </c>
-      <c r="E102">
-        <v>1.027560095095536</v>
-      </c>
       <c r="F102">
-        <v>1.03327535658243</v>
+        <v>1.023131364492047</v>
       </c>
       <c r="G102">
         <v>1.047214513334935</v>
@@ -3608,19 +3608,19 @@
         <v>44351</v>
       </c>
       <c r="B103">
+        <v>1.036482639194623</v>
+      </c>
+      <c r="C103">
+        <v>1.067554309740715</v>
+      </c>
+      <c r="D103">
+        <v>1.066010211524435</v>
+      </c>
+      <c r="E103">
         <v>0.9797585453973902</v>
       </c>
-      <c r="C103">
-        <v>1.066010211524435</v>
-      </c>
-      <c r="D103">
-        <v>1.067554309740715</v>
-      </c>
-      <c r="E103">
-        <v>1.036482639194623</v>
-      </c>
       <c r="F103">
-        <v>1.042112881825372</v>
+        <v>1.03278997110321</v>
       </c>
       <c r="G103">
         <v>1.051192770346358</v>
@@ -3634,19 +3634,19 @@
         <v>44354</v>
       </c>
       <c r="B104">
+        <v>1.03210941856711</v>
+      </c>
+      <c r="C104">
+        <v>1.063583274935763</v>
+      </c>
+      <c r="D104">
+        <v>1.088986141502553</v>
+      </c>
+      <c r="E104">
         <v>0.9755672921580087</v>
       </c>
-      <c r="C104">
-        <v>1.088986141502553</v>
-      </c>
-      <c r="D104">
-        <v>1.063583274935763</v>
-      </c>
-      <c r="E104">
-        <v>1.03210941856711</v>
-      </c>
       <c r="F104">
-        <v>1.042552672578243</v>
+        <v>1.037570391003474</v>
       </c>
       <c r="G104">
         <v>1.055659475020849</v>
@@ -3660,19 +3660,19 @@
         <v>44355</v>
       </c>
       <c r="B105">
+        <v>1.001350121804467</v>
+      </c>
+      <c r="C105">
+        <v>1.057790235926186</v>
+      </c>
+      <c r="D105">
+        <v>1.082786287381473</v>
+      </c>
+      <c r="E105">
         <v>0.9705915053980027</v>
       </c>
-      <c r="C105">
-        <v>1.082786287381473</v>
-      </c>
-      <c r="D105">
-        <v>1.057790235926186</v>
-      </c>
-      <c r="E105">
-        <v>1.001350121804467</v>
-      </c>
       <c r="F105">
-        <v>1.028590542823626</v>
+        <v>1.027668532431438</v>
       </c>
       <c r="G105">
         <v>1.049857784772055</v>
@@ -3686,19 +3686,19 @@
         <v>44356</v>
       </c>
       <c r="B106">
+        <v>1.006310351912183</v>
+      </c>
+      <c r="C106">
+        <v>1.063723429105349</v>
+      </c>
+      <c r="D106">
+        <v>1.096097738876732</v>
+      </c>
+      <c r="E106">
         <v>0.9788513722187088</v>
       </c>
-      <c r="C106">
-        <v>1.096097738876732</v>
-      </c>
-      <c r="D106">
-        <v>1.063723429105349</v>
-      </c>
-      <c r="E106">
-        <v>1.006310351912183</v>
-      </c>
       <c r="F106">
-        <v>1.035852496622011</v>
+        <v>1.036638949434476</v>
       </c>
       <c r="G106">
         <v>1.051167641206136</v>
@@ -3712,19 +3712,19 @@
         <v>44357</v>
       </c>
       <c r="B107">
+        <v>1.012180446714214</v>
+      </c>
+      <c r="C107">
+        <v>1.085634197617379</v>
+      </c>
+      <c r="D107">
+        <v>1.110959153902261</v>
+      </c>
+      <c r="E107">
         <v>1.024708048933364</v>
       </c>
-      <c r="C107">
-        <v>1.110959153902261</v>
-      </c>
-      <c r="D107">
-        <v>1.085634197617379</v>
-      </c>
-      <c r="E107">
-        <v>1.012180446714214</v>
-      </c>
       <c r="F107">
-        <v>1.055342257111482</v>
+        <v>1.061398666472127</v>
       </c>
       <c r="G107">
         <v>1.062591976579641</v>
@@ -3738,19 +3738,19 @@
         <v>44358</v>
       </c>
       <c r="B108">
+        <v>0.9930439376595932</v>
+      </c>
+      <c r="C108">
+        <v>1.085540761504322</v>
+      </c>
+      <c r="D108">
+        <v>1.093818380743983</v>
+      </c>
+      <c r="E108">
         <v>1.046192225799736</v>
       </c>
-      <c r="C108">
-        <v>1.093818380743983</v>
-      </c>
-      <c r="D108">
-        <v>1.085540761504322</v>
-      </c>
-      <c r="E108">
-        <v>0.9930439376595932</v>
-      </c>
       <c r="F108">
-        <v>1.049734753836524</v>
+        <v>1.059562899017293</v>
       </c>
       <c r="G108">
         <v>1.056353667519487</v>
@@ -3764,19 +3764,19 @@
         <v>44362</v>
       </c>
       <c r="B109">
+        <v>0.9857943705790848</v>
+      </c>
+      <c r="C109">
+        <v>1.078112590516235</v>
+      </c>
+      <c r="D109">
+        <v>1.107768052516412</v>
+      </c>
+      <c r="E109">
         <v>1.035734865725759</v>
       </c>
-      <c r="C109">
-        <v>1.107768052516412</v>
-      </c>
-      <c r="D109">
-        <v>1.078112590516235</v>
-      </c>
-      <c r="E109">
-        <v>0.9857943705790848</v>
-      </c>
       <c r="F109">
-        <v>1.045484793262625</v>
+        <v>1.058220146406121</v>
       </c>
       <c r="G109">
         <v>1.046575290830534</v>
@@ -3790,19 +3790,19 @@
         <v>44363</v>
       </c>
       <c r="B110">
+        <v>0.9784274016025359</v>
+      </c>
+      <c r="C110">
+        <v>1.039803784162579</v>
+      </c>
+      <c r="D110">
+        <v>1.074762946754194</v>
+      </c>
+      <c r="E110">
         <v>0.9894563952823954</v>
       </c>
-      <c r="C110">
-        <v>1.074762946754194</v>
-      </c>
-      <c r="D110">
-        <v>1.039803784162579</v>
-      </c>
-      <c r="E110">
-        <v>0.9784274016025359</v>
-      </c>
       <c r="F110">
-        <v>1.016933579448708</v>
+        <v>1.024291684452144</v>
       </c>
       <c r="G110">
         <v>1.031282638434078</v>
@@ -3816,19 +3816,19 @@
         <v>44364</v>
       </c>
       <c r="B111">
+        <v>0.982037509905785</v>
+      </c>
+      <c r="C111">
+        <v>1.055080588647512</v>
+      </c>
+      <c r="D111">
+        <v>1.158096280087527</v>
+      </c>
+      <c r="E111">
         <v>1.01052108653389</v>
       </c>
-      <c r="C111">
-        <v>1.158096280087527</v>
-      </c>
-      <c r="D111">
-        <v>1.055080588647512</v>
-      </c>
-      <c r="E111">
-        <v>0.982037509905785</v>
-      </c>
       <c r="F111">
-        <v>1.040913924848229</v>
+        <v>1.061953807739128</v>
       </c>
       <c r="G111">
         <v>1.03911664789834</v>
@@ -3842,19 +3842,19 @@
         <v>44365</v>
       </c>
       <c r="B112">
+        <v>0.9696809603475096</v>
+      </c>
+      <c r="C112">
+        <v>1.067974772249475</v>
+      </c>
+      <c r="D112">
+        <v>1.167122538293217</v>
+      </c>
+      <c r="E112">
         <v>1.032809359592988</v>
       </c>
-      <c r="C112">
-        <v>1.167122538293217</v>
-      </c>
-      <c r="D112">
-        <v>1.067974772249475</v>
-      </c>
-      <c r="E112">
-        <v>0.9696809603475096</v>
-      </c>
       <c r="F112">
-        <v>1.04641481439766</v>
+        <v>1.072379000843935</v>
       </c>
       <c r="G112">
         <v>1.045648653784841</v>
@@ -3868,19 +3868,19 @@
         <v>44368</v>
       </c>
       <c r="B113">
+        <v>0.9600246543981686</v>
+      </c>
+      <c r="C113">
+        <v>1.0795141322121</v>
+      </c>
+      <c r="D113">
+        <v>1.173504741064916</v>
+      </c>
+      <c r="E113">
         <v>1.065228282028091</v>
       </c>
-      <c r="C113">
-        <v>1.173504741064916</v>
-      </c>
-      <c r="D113">
-        <v>1.0795141322121</v>
-      </c>
-      <c r="E113">
-        <v>0.9600246543981686</v>
-      </c>
       <c r="F113">
-        <v>1.0536324135072</v>
+        <v>1.085503491344438</v>
       </c>
       <c r="G113">
         <v>1.053410416970965</v>
@@ -3894,19 +3894,19 @@
         <v>44369</v>
       </c>
       <c r="B114">
+        <v>0.9653370901940067</v>
+      </c>
+      <c r="C114">
+        <v>1.085914505956552</v>
+      </c>
+      <c r="D114">
+        <v>1.171772428884026</v>
+      </c>
+      <c r="E114">
         <v>1.06823848467936</v>
       </c>
-      <c r="C114">
-        <v>1.171772428884026</v>
-      </c>
-      <c r="D114">
-        <v>1.085914505956552</v>
-      </c>
-      <c r="E114">
-        <v>0.9653370901940067</v>
-      </c>
       <c r="F114">
-        <v>1.05771488203546</v>
+        <v>1.087916372821512</v>
       </c>
       <c r="G114">
         <v>1.058532049862497</v>
@@ -3920,19 +3920,19 @@
         <v>44370</v>
       </c>
       <c r="B115">
+        <v>0.9529511901617211</v>
+      </c>
+      <c r="C115">
+        <v>1.097453865919178</v>
+      </c>
+      <c r="D115">
+        <v>1.224653537563822</v>
+      </c>
+      <c r="E115">
         <v>1.082671176758622</v>
       </c>
-      <c r="C115">
-        <v>1.224653537563822</v>
-      </c>
-      <c r="D115">
-        <v>1.097453865919178</v>
-      </c>
-      <c r="E115">
-        <v>0.9529511901617211</v>
-      </c>
       <c r="F115">
-        <v>1.068878869941512</v>
+        <v>1.109986015260159</v>
       </c>
       <c r="G115">
         <v>1.066410035322148</v>
@@ -3946,19 +3946,19 @@
         <v>44371</v>
       </c>
       <c r="B116">
+        <v>0.9544774148102492</v>
+      </c>
+      <c r="C116">
+        <v>1.09656622284513</v>
+      </c>
+      <c r="D116">
+        <v>1.204959883296864</v>
+      </c>
+      <c r="E116">
         <v>1.117911740204111</v>
       </c>
-      <c r="C116">
-        <v>1.204959883296864</v>
-      </c>
-      <c r="D116">
-        <v>1.09656622284513</v>
-      </c>
-      <c r="E116">
-        <v>0.9544774148102492</v>
-      </c>
       <c r="F116">
-        <v>1.071732576421441</v>
+        <v>1.115225054156736</v>
       </c>
       <c r="G116">
         <v>1.060900471328436</v>
@@ -3972,19 +3972,19 @@
         <v>44372</v>
       </c>
       <c r="B117">
+        <v>0.9716767925802002</v>
+      </c>
+      <c r="C117">
+        <v>1.117729502452698</v>
+      </c>
+      <c r="D117">
+        <v>1.219547775346462</v>
+      </c>
+      <c r="E117">
         <v>1.123907910311425</v>
       </c>
-      <c r="C117">
-        <v>1.219547775346462</v>
-      </c>
-      <c r="D117">
-        <v>1.117729502452698</v>
-      </c>
-      <c r="E117">
-        <v>0.9716767925802002</v>
-      </c>
       <c r="F117">
-        <v>1.087891543922697</v>
+        <v>1.128539446422696</v>
       </c>
       <c r="G117">
         <v>1.070094595507224</v>
@@ -3998,25 +3998,259 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.138427044068423</v>
+        <v>0.9862052772152271</v>
       </c>
       <c r="C118">
-        <v>1.219547775346462</v>
+        <v>1.127960756832516</v>
       </c>
       <c r="D118">
-        <v>1.117729502452698</v>
+        <v>1.239423778264041</v>
       </c>
       <c r="E118">
-        <v>0.9716767925802002</v>
+        <v>1.138426987772964</v>
       </c>
       <c r="F118">
-        <v>1.090359796661387</v>
+        <v>1.144098978580328</v>
       </c>
       <c r="G118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="H118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>0.9725573068005049</v>
+      </c>
+      <c r="C119">
+        <v>1.125998598458304</v>
+      </c>
+      <c r="D119">
+        <v>1.227024070021882</v>
+      </c>
+      <c r="E119">
+        <v>1.169976708316675</v>
+      </c>
+      <c r="F119">
+        <v>1.147764760745721</v>
+      </c>
+      <c r="G119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="H119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>0.9734378210208096</v>
+      </c>
+      <c r="C120">
+        <v>1.139640270964728</v>
+      </c>
+      <c r="D120">
+        <v>1.282913931436907</v>
+      </c>
+      <c r="E120">
+        <v>1.184750381992839</v>
+      </c>
+      <c r="F120">
+        <v>1.173552499069358</v>
+      </c>
+      <c r="G120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="H120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>0.9803645328872062</v>
+      </c>
+      <c r="C121">
+        <v>1.137024059799113</v>
+      </c>
+      <c r="D121">
+        <v>1.25291757840992</v>
+      </c>
+      <c r="E121">
+        <v>1.147442677430058</v>
+      </c>
+      <c r="F121">
+        <v>1.152074945183867</v>
+      </c>
+      <c r="G121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="H121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>0.9532153444278125</v>
+      </c>
+      <c r="C122">
+        <v>1.095585143658024</v>
+      </c>
+      <c r="D122">
+        <v>1.233497447118891</v>
+      </c>
+      <c r="E122">
+        <v>1.132532487265123</v>
+      </c>
+      <c r="F122">
+        <v>1.129085961321317</v>
+      </c>
+      <c r="G122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="H122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>0.9479322591059846</v>
+      </c>
+      <c r="C123">
+        <v>1.100911002102313</v>
+      </c>
+      <c r="D123">
+        <v>1.283096280087527</v>
+      </c>
+      <c r="E123">
+        <v>1.151187676563671</v>
+      </c>
+      <c r="F123">
+        <v>1.151617060100306</v>
+      </c>
+      <c r="G123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="H123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>0.9433829356344106</v>
+      </c>
+      <c r="C124">
+        <v>1.092128007474889</v>
+      </c>
+      <c r="D124">
+        <v>1.258205689277899</v>
+      </c>
+      <c r="E124">
+        <v>1.128655109358996</v>
+      </c>
+      <c r="F124">
+        <v>1.133700923878757</v>
+      </c>
+      <c r="G124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="H124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>0.9463473335094362</v>
+      </c>
+      <c r="C125">
+        <v>1.12212099976641</v>
+      </c>
+      <c r="D125">
+        <v>1.293490153172867</v>
+      </c>
+      <c r="E125">
+        <v>1.18879324040154</v>
+      </c>
+      <c r="F125">
+        <v>1.170793136536448</v>
+      </c>
+      <c r="G125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="H125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>0.9301458718558304</v>
+      </c>
+      <c r="C126">
+        <v>1.128661527680449</v>
+      </c>
+      <c r="D126">
+        <v>1.329412837345004</v>
+      </c>
+      <c r="E126">
+        <v>1.200642730888226</v>
+      </c>
+      <c r="F126">
+        <v>1.184915595438133</v>
+      </c>
+      <c r="G126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="H126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>0.9139150597282146</v>
+      </c>
+      <c r="C127">
+        <v>1.12740014015417</v>
+      </c>
+      <c r="D127">
+        <v>1.310083880379285</v>
+      </c>
+      <c r="E127">
+        <v>1.208409224303741</v>
+      </c>
+      <c r="F127">
+        <v>1.178126308525404</v>
+      </c>
+      <c r="G127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="H127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4128,18 +4362,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -4171,172 +4405,157 @@
       <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="J2">
-        <v>48.82</v>
+        <v>8.680999755859375</v>
       </c>
       <c r="K2">
-        <v>4.98</v>
+        <v>37.81980133056641</v>
       </c>
       <c r="L2">
-        <v>15.45</v>
-      </c>
-      <c r="M2">
-        <v>44.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>21.132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="J3">
-        <v>81.61</v>
+        <v>8.285799980163574</v>
       </c>
       <c r="K3">
-        <v>8.33</v>
+        <v>43.79740142822266</v>
       </c>
       <c r="L3">
-        <v>20.06</v>
-      </c>
-      <c r="M3">
-        <v>59.93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>29.137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="J4">
-        <v>43.54</v>
+        <v>9.079999923706055</v>
       </c>
       <c r="K4">
-        <v>8.15</v>
+        <v>87.84709930419922</v>
       </c>
       <c r="L4">
-        <v>25.33</v>
-      </c>
-      <c r="M4">
-        <v>29.14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>59.9349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="J5">
-        <v>41.16</v>
+        <v>5.359000205993652</v>
       </c>
       <c r="K5">
-        <v>9.26</v>
+        <v>52.7661018371582</v>
       </c>
       <c r="L5">
-        <v>13.51</v>
-      </c>
-      <c r="M5">
-        <v>21.13</v>
+        <v>44.9032</v>
       </c>
     </row>
   </sheetData>
@@ -4354,19 +4573,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4374,10 +4593,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>111</v>
@@ -4394,10 +4613,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
         <v>112</v>
@@ -4414,10 +4633,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
         <v>113</v>
@@ -4434,10 +4653,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
         <v>114</v>
@@ -4454,7 +4673,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
         <v>95</v>
@@ -4474,7 +4693,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
         <v>96</v>
@@ -4494,7 +4713,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
         <v>97</v>
@@ -4514,7 +4733,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
         <v>98</v>
@@ -4534,7 +4753,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
         <v>99</v>
@@ -4554,7 +4773,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
         <v>100</v>
@@ -4574,7 +4793,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
         <v>101</v>
@@ -4594,7 +4813,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
         <v>102</v>
@@ -4614,7 +4833,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
         <v>103</v>
@@ -4634,7 +4853,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
         <v>104</v>
@@ -4643,7 +4862,7 @@
         <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F15" t="s">
         <v>163</v>
@@ -4654,7 +4873,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
         <v>105</v>
@@ -4663,7 +4882,7 @@
         <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F16" t="s">
         <v>164</v>
@@ -4674,7 +4893,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
         <v>106</v>
@@ -4694,7 +4913,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
         <v>107</v>
@@ -4714,7 +4933,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
         <v>108</v>
@@ -4734,7 +4953,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
         <v>109</v>
@@ -4754,7 +4973,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
         <v>110</v>
@@ -4803,7 +5022,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>173</v>
@@ -4814,7 +5033,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>174</v>
@@ -4825,7 +5044,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>175</v>
@@ -4836,7 +5055,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>176</v>
@@ -4847,7 +5066,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>177</v>
@@ -4858,7 +5077,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>178</v>
@@ -4869,7 +5088,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>179</v>
